--- a/YGA_SIEM_PROJECT/RİSK YÖNETİMİ TABLOSU Taslak 2.xlsx
+++ b/YGA_SIEM_PROJECT/RİSK YÖNETİMİ TABLOSU Taslak 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siyaksares/Developer/GitHub/SIEM_Project/YGA_SIEM_PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B0CB6-1FE1-1741-908C-4C1CDF563A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B20B795-6A1E-3841-917C-579975C022E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{224CDE68-0482-4635-9F92-16D671AE651E}"/>
   </bookViews>
@@ -598,13 +598,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,6 +661,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -697,15 +706,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,22 +733,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B6D5A4-D95F-450C-ACDC-78A0C7D620E2}">
   <dimension ref="B1:AV124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24:AM26"/>
+    <sheetView tabSelected="1" topLeftCell="V48" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="AN61" sqref="AN61:AU63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1112,72 +1112,72 @@
       </c>
     </row>
     <row r="2" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="27" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="24" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="25"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+      <c r="B5" s="48">
         <v>1</v>
       </c>
       <c r="C5" s="6"/>
@@ -1197,10 +1197,10 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="48"/>
+      <c r="R5" s="24"/>
     </row>
     <row r="6" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1216,10 +1216,10 @@
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="20"/>
-      <c r="R6" s="49"/>
+      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -1235,10 +1235,10 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="23"/>
-      <c r="R7" s="50"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="B8" s="48">
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
@@ -1258,10 +1258,10 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
-      <c r="R8" s="48"/>
+      <c r="R8" s="24"/>
     </row>
     <row r="9" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -1277,10 +1277,10 @@
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="20"/>
-      <c r="R9" s="49"/>
+      <c r="R9" s="25"/>
     </row>
     <row r="10" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1296,10 +1296,10 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="23"/>
-      <c r="R10" s="50"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="11" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
+      <c r="B11" s="48">
         <v>3</v>
       </c>
       <c r="C11" s="6"/>
@@ -1319,10 +1319,10 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="48"/>
+      <c r="R11" s="24"/>
     </row>
     <row r="12" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -1338,10 +1338,10 @@
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="20"/>
-      <c r="R12" s="49"/>
+      <c r="R12" s="25"/>
     </row>
     <row r="13" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1357,10 +1357,10 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="23"/>
-      <c r="R13" s="50"/>
+      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
+      <c r="B14" s="48">
         <v>4</v>
       </c>
       <c r="C14" s="6"/>
@@ -1380,10 +1380,10 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="48"/>
+      <c r="R14" s="24"/>
     </row>
     <row r="15" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -1399,35 +1399,35 @@
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="49"/>
-      <c r="AF15" s="24" t="s">
+      <c r="R15" s="25"/>
+      <c r="AF15" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AG15" s="27" t="s">
+      <c r="AG15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="29"/>
-      <c r="AN15" s="27" t="s">
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="28"/>
-      <c r="AQ15" s="28"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="29"/>
-      <c r="AV15" s="24" t="s">
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -1443,27 +1443,27 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="23"/>
-      <c r="R16" s="50"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31"/>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="31"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="25"/>
+      <c r="R16" s="26"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="34"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="28"/>
     </row>
     <row r="17" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="B17" s="48">
         <v>5</v>
       </c>
       <c r="C17" s="6"/>
@@ -1483,27 +1483,27 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="48"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="34"/>
-      <c r="AQ17" s="34"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="34"/>
-      <c r="AT17" s="34"/>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="26"/>
+      <c r="R17" s="24"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="29"/>
     </row>
     <row r="18" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -1519,9 +1519,9 @@
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="49"/>
+      <c r="R18" s="25"/>
       <c r="U18" s="2"/>
-      <c r="AF18" s="51">
+      <c r="AF18" s="3">
         <v>1</v>
       </c>
       <c r="AG18" s="6" t="s">
@@ -1543,12 +1543,12 @@
       <c r="AS18" s="16"/>
       <c r="AT18" s="16"/>
       <c r="AU18" s="17"/>
-      <c r="AV18" s="48" t="s">
+      <c r="AV18" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -1564,8 +1564,8 @@
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="23"/>
-      <c r="R19" s="50"/>
-      <c r="AF19" s="52"/>
+      <c r="R19" s="26"/>
+      <c r="AF19" s="4"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
@@ -1581,10 +1581,10 @@
       <c r="AS19" s="19"/>
       <c r="AT19" s="19"/>
       <c r="AU19" s="20"/>
-      <c r="AV19" s="49"/>
+      <c r="AV19" s="25"/>
     </row>
     <row r="20" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
+      <c r="B20" s="48">
         <v>6</v>
       </c>
       <c r="C20" s="6"/>
@@ -1604,8 +1604,8 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="48"/>
-      <c r="AF20" s="53"/>
+      <c r="R20" s="24"/>
+      <c r="AF20" s="5"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
@@ -1621,10 +1621,10 @@
       <c r="AS20" s="22"/>
       <c r="AT20" s="22"/>
       <c r="AU20" s="23"/>
-      <c r="AV20" s="50"/>
+      <c r="AV20" s="26"/>
     </row>
     <row r="21" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1640,8 +1640,8 @@
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="20"/>
-      <c r="R21" s="49"/>
-      <c r="AF21" s="51">
+      <c r="R21" s="25"/>
+      <c r="AF21" s="3">
         <v>2</v>
       </c>
       <c r="AG21" s="6" t="s">
@@ -1663,12 +1663,12 @@
       <c r="AS21" s="16"/>
       <c r="AT21" s="16"/>
       <c r="AU21" s="17"/>
-      <c r="AV21" s="48" t="s">
+      <c r="AV21" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -1684,8 +1684,8 @@
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="23"/>
-      <c r="R22" s="50"/>
-      <c r="AF22" s="52"/>
+      <c r="R22" s="26"/>
+      <c r="AF22" s="4"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
@@ -1701,10 +1701,10 @@
       <c r="AS22" s="19"/>
       <c r="AT22" s="19"/>
       <c r="AU22" s="20"/>
-      <c r="AV22" s="49"/>
+      <c r="AV22" s="25"/>
     </row>
     <row r="23" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
+      <c r="B23" s="48">
         <v>7</v>
       </c>
       <c r="C23" s="6"/>
@@ -1724,8 +1724,8 @@
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
-      <c r="R23" s="48"/>
-      <c r="AF23" s="53"/>
+      <c r="R23" s="24"/>
+      <c r="AF23" s="5"/>
       <c r="AG23" s="12"/>
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
@@ -1741,10 +1741,10 @@
       <c r="AS23" s="22"/>
       <c r="AT23" s="22"/>
       <c r="AU23" s="23"/>
-      <c r="AV23" s="50"/>
+      <c r="AV23" s="26"/>
     </row>
     <row r="24" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -1760,8 +1760,8 @@
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="20"/>
-      <c r="R24" s="49"/>
-      <c r="AF24" s="51">
+      <c r="R24" s="25"/>
+      <c r="AF24" s="3">
         <v>3</v>
       </c>
       <c r="AG24" s="6" t="s">
@@ -1783,12 +1783,12 @@
       <c r="AS24" s="16"/>
       <c r="AT24" s="16"/>
       <c r="AU24" s="17"/>
-      <c r="AV24" s="48" t="s">
+      <c r="AV24" s="24" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -1804,8 +1804,8 @@
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="23"/>
-      <c r="R25" s="50"/>
-      <c r="AF25" s="52"/>
+      <c r="R25" s="26"/>
+      <c r="AF25" s="4"/>
       <c r="AG25" s="9"/>
       <c r="AH25" s="10"/>
       <c r="AI25" s="10"/>
@@ -1821,10 +1821,10 @@
       <c r="AS25" s="19"/>
       <c r="AT25" s="19"/>
       <c r="AU25" s="20"/>
-      <c r="AV25" s="49"/>
+      <c r="AV25" s="25"/>
     </row>
     <row r="26" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="3">
+      <c r="B26" s="48">
         <v>8</v>
       </c>
       <c r="C26" s="6"/>
@@ -1844,8 +1844,8 @@
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="17"/>
-      <c r="R26" s="48"/>
-      <c r="AF26" s="53"/>
+      <c r="R26" s="24"/>
+      <c r="AF26" s="5"/>
       <c r="AG26" s="12"/>
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
@@ -1861,10 +1861,10 @@
       <c r="AS26" s="22"/>
       <c r="AT26" s="22"/>
       <c r="AU26" s="23"/>
-      <c r="AV26" s="50"/>
+      <c r="AV26" s="26"/>
     </row>
     <row r="27" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -1880,8 +1880,8 @@
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="20"/>
-      <c r="R27" s="49"/>
-      <c r="AF27" s="51">
+      <c r="R27" s="25"/>
+      <c r="AF27" s="3">
         <v>4</v>
       </c>
       <c r="AG27" s="6" t="s">
@@ -1903,12 +1903,12 @@
       <c r="AS27" s="16"/>
       <c r="AT27" s="16"/>
       <c r="AU27" s="17"/>
-      <c r="AV27" s="48" t="s">
+      <c r="AV27" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -1924,8 +1924,8 @@
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="23"/>
-      <c r="R28" s="50"/>
-      <c r="AF28" s="52"/>
+      <c r="R28" s="26"/>
+      <c r="AF28" s="4"/>
       <c r="AG28" s="9"/>
       <c r="AH28" s="10"/>
       <c r="AI28" s="10"/>
@@ -1941,10 +1941,10 @@
       <c r="AS28" s="19"/>
       <c r="AT28" s="19"/>
       <c r="AU28" s="20"/>
-      <c r="AV28" s="49"/>
+      <c r="AV28" s="25"/>
     </row>
     <row r="29" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
+      <c r="B29" s="48">
         <v>9</v>
       </c>
       <c r="C29" s="6"/>
@@ -1964,8 +1964,8 @@
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
-      <c r="R29" s="48"/>
-      <c r="AF29" s="53"/>
+      <c r="R29" s="24"/>
+      <c r="AF29" s="5"/>
       <c r="AG29" s="12"/>
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
@@ -1981,10 +1981,10 @@
       <c r="AS29" s="22"/>
       <c r="AT29" s="22"/>
       <c r="AU29" s="23"/>
-      <c r="AV29" s="50"/>
+      <c r="AV29" s="26"/>
     </row>
     <row r="30" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -2000,8 +2000,8 @@
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
       <c r="Q30" s="20"/>
-      <c r="R30" s="49"/>
-      <c r="AF30" s="51">
+      <c r="R30" s="25"/>
+      <c r="AF30" s="3">
         <v>5</v>
       </c>
       <c r="AG30" s="6" t="s">
@@ -2023,12 +2023,12 @@
       <c r="AS30" s="16"/>
       <c r="AT30" s="16"/>
       <c r="AU30" s="17"/>
-      <c r="AV30" s="48" t="s">
+      <c r="AV30" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -2044,8 +2044,8 @@
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="23"/>
-      <c r="R31" s="50"/>
-      <c r="AF31" s="52"/>
+      <c r="R31" s="26"/>
+      <c r="AF31" s="4"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
@@ -2061,10 +2061,10 @@
       <c r="AS31" s="19"/>
       <c r="AT31" s="19"/>
       <c r="AU31" s="20"/>
-      <c r="AV31" s="49"/>
+      <c r="AV31" s="25"/>
     </row>
     <row r="32" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3">
+      <c r="B32" s="48">
         <v>10</v>
       </c>
       <c r="C32" s="6"/>
@@ -2084,8 +2084,8 @@
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
-      <c r="R32" s="48"/>
-      <c r="AF32" s="53"/>
+      <c r="R32" s="24"/>
+      <c r="AF32" s="5"/>
       <c r="AG32" s="12"/>
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
@@ -2101,10 +2101,10 @@
       <c r="AS32" s="22"/>
       <c r="AT32" s="22"/>
       <c r="AU32" s="23"/>
-      <c r="AV32" s="50"/>
+      <c r="AV32" s="26"/>
     </row>
     <row r="33" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -2120,8 +2120,8 @@
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
       <c r="Q33" s="20"/>
-      <c r="R33" s="49"/>
-      <c r="AF33" s="51">
+      <c r="R33" s="25"/>
+      <c r="AF33" s="3">
         <v>6</v>
       </c>
       <c r="AG33" s="6" t="s">
@@ -2143,12 +2143,12 @@
       <c r="AS33" s="16"/>
       <c r="AT33" s="16"/>
       <c r="AU33" s="17"/>
-      <c r="AV33" s="48" t="s">
+      <c r="AV33" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -2164,8 +2164,8 @@
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="23"/>
-      <c r="R34" s="50"/>
-      <c r="AF34" s="52"/>
+      <c r="R34" s="26"/>
+      <c r="AF34" s="4"/>
       <c r="AG34" s="9"/>
       <c r="AH34" s="10"/>
       <c r="AI34" s="10"/>
@@ -2181,10 +2181,10 @@
       <c r="AS34" s="19"/>
       <c r="AT34" s="19"/>
       <c r="AU34" s="20"/>
-      <c r="AV34" s="49"/>
+      <c r="AV34" s="25"/>
     </row>
     <row r="35" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3">
+      <c r="B35" s="48">
         <v>11</v>
       </c>
       <c r="C35" s="6"/>
@@ -2204,8 +2204,8 @@
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
-      <c r="R35" s="48"/>
-      <c r="AF35" s="53"/>
+      <c r="R35" s="24"/>
+      <c r="AF35" s="5"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
@@ -2221,10 +2221,10 @@
       <c r="AS35" s="22"/>
       <c r="AT35" s="22"/>
       <c r="AU35" s="23"/>
-      <c r="AV35" s="50"/>
+      <c r="AV35" s="26"/>
     </row>
     <row r="36" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -2240,8 +2240,8 @@
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="20"/>
-      <c r="R36" s="49"/>
-      <c r="AF36" s="51">
+      <c r="R36" s="25"/>
+      <c r="AF36" s="3">
         <v>6</v>
       </c>
       <c r="AG36" s="6" t="s">
@@ -2263,12 +2263,12 @@
       <c r="AS36" s="16"/>
       <c r="AT36" s="16"/>
       <c r="AU36" s="17"/>
-      <c r="AV36" s="48" t="s">
+      <c r="AV36" s="24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -2284,8 +2284,8 @@
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="23"/>
-      <c r="R37" s="50"/>
-      <c r="AF37" s="52"/>
+      <c r="R37" s="26"/>
+      <c r="AF37" s="4"/>
       <c r="AG37" s="9"/>
       <c r="AH37" s="10"/>
       <c r="AI37" s="10"/>
@@ -2301,10 +2301,10 @@
       <c r="AS37" s="19"/>
       <c r="AT37" s="19"/>
       <c r="AU37" s="20"/>
-      <c r="AV37" s="49"/>
+      <c r="AV37" s="25"/>
     </row>
     <row r="38" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3">
+      <c r="B38" s="48">
         <v>12</v>
       </c>
       <c r="C38" s="6"/>
@@ -2324,8 +2324,8 @@
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
-      <c r="R38" s="48"/>
-      <c r="AF38" s="53"/>
+      <c r="R38" s="24"/>
+      <c r="AF38" s="5"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="13"/>
       <c r="AI38" s="13"/>
@@ -2341,10 +2341,10 @@
       <c r="AS38" s="22"/>
       <c r="AT38" s="22"/>
       <c r="AU38" s="23"/>
-      <c r="AV38" s="50"/>
+      <c r="AV38" s="26"/>
     </row>
     <row r="39" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -2360,8 +2360,8 @@
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="20"/>
-      <c r="R39" s="49"/>
-      <c r="AF39" s="51" t="s">
+      <c r="R39" s="25"/>
+      <c r="AF39" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AG39" s="6" t="s">
@@ -2383,12 +2383,12 @@
       <c r="AS39" s="16"/>
       <c r="AT39" s="16"/>
       <c r="AU39" s="17"/>
-      <c r="AV39" s="48" t="s">
+      <c r="AV39" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -2404,8 +2404,8 @@
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
       <c r="Q40" s="23"/>
-      <c r="R40" s="50"/>
-      <c r="AF40" s="52"/>
+      <c r="R40" s="26"/>
+      <c r="AF40" s="4"/>
       <c r="AG40" s="9"/>
       <c r="AH40" s="10"/>
       <c r="AI40" s="10"/>
@@ -2421,10 +2421,10 @@
       <c r="AS40" s="19"/>
       <c r="AT40" s="19"/>
       <c r="AU40" s="20"/>
-      <c r="AV40" s="49"/>
+      <c r="AV40" s="25"/>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AF41" s="53"/>
+      <c r="AF41" s="5"/>
       <c r="AG41" s="12"/>
       <c r="AH41" s="13"/>
       <c r="AI41" s="13"/>
@@ -2440,10 +2440,10 @@
       <c r="AS41" s="22"/>
       <c r="AT41" s="22"/>
       <c r="AU41" s="23"/>
-      <c r="AV41" s="50"/>
+      <c r="AV41" s="26"/>
     </row>
     <row r="42" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AF42" s="51" t="s">
+      <c r="AF42" s="3" t="s">
         <v>83</v>
       </c>
       <c r="AG42" s="6" t="s">
@@ -2465,7 +2465,7 @@
       <c r="AS42" s="16"/>
       <c r="AT42" s="16"/>
       <c r="AU42" s="17"/>
-      <c r="AV42" s="48" t="s">
+      <c r="AV42" s="24" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="AF43" s="52"/>
+      <c r="AF43" s="4"/>
       <c r="AG43" s="9"/>
       <c r="AH43" s="10"/>
       <c r="AI43" s="10"/>
@@ -2504,10 +2504,10 @@
       <c r="AS43" s="19"/>
       <c r="AT43" s="19"/>
       <c r="AU43" s="20"/>
-      <c r="AV43" s="49"/>
+      <c r="AV43" s="25"/>
     </row>
     <row r="44" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="39" t="s">
@@ -2519,16 +2519,16 @@
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
       <c r="I44" s="41"/>
-      <c r="J44" s="27" t="s">
+      <c r="J44" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="29"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="32"/>
       <c r="R44" s="39" t="s">
         <v>1</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="W44" s="40"/>
       <c r="X44" s="40"/>
       <c r="Y44" s="41"/>
-      <c r="AF44" s="53"/>
+      <c r="AF44" s="5"/>
       <c r="AG44" s="12"/>
       <c r="AH44" s="13"/>
       <c r="AI44" s="13"/>
@@ -2555,10 +2555,10 @@
       <c r="AS44" s="22"/>
       <c r="AT44" s="22"/>
       <c r="AU44" s="23"/>
-      <c r="AV44" s="50"/>
+      <c r="AV44" s="26"/>
     </row>
     <row r="45" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="25"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="42"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
@@ -2566,14 +2566,14 @@
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="44"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="32"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="35"/>
       <c r="R45" s="42"/>
       <c r="S45" s="43"/>
       <c r="T45" s="43"/>
@@ -2582,7 +2582,7 @@
       <c r="W45" s="43"/>
       <c r="X45" s="43"/>
       <c r="Y45" s="44"/>
-      <c r="AF45" s="51" t="s">
+      <c r="AF45" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AG45" s="6" t="s">
@@ -2604,12 +2604,12 @@
       <c r="AS45" s="16"/>
       <c r="AT45" s="16"/>
       <c r="AU45" s="17"/>
-      <c r="AV45" s="48" t="s">
+      <c r="AV45" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="26"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="45"/>
       <c r="D46" s="46"/>
       <c r="E46" s="46"/>
@@ -2617,14 +2617,14 @@
       <c r="G46" s="46"/>
       <c r="H46" s="46"/>
       <c r="I46" s="47"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="35"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="38"/>
       <c r="R46" s="45"/>
       <c r="S46" s="46"/>
       <c r="T46" s="46"/>
@@ -2633,7 +2633,7 @@
       <c r="W46" s="46"/>
       <c r="X46" s="46"/>
       <c r="Y46" s="47"/>
-      <c r="AF46" s="52"/>
+      <c r="AF46" s="4"/>
       <c r="AG46" s="9"/>
       <c r="AH46" s="10"/>
       <c r="AI46" s="10"/>
@@ -2649,10 +2649,10 @@
       <c r="AS46" s="19"/>
       <c r="AT46" s="19"/>
       <c r="AU46" s="20"/>
-      <c r="AV46" s="49"/>
+      <c r="AV46" s="25"/>
     </row>
     <row r="47" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="36">
+      <c r="B47" s="51">
         <v>1</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -2684,7 +2684,7 @@
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="8"/>
-      <c r="AF47" s="53"/>
+      <c r="AF47" s="5"/>
       <c r="AG47" s="12"/>
       <c r="AH47" s="13"/>
       <c r="AI47" s="13"/>
@@ -2700,10 +2700,10 @@
       <c r="AS47" s="22"/>
       <c r="AT47" s="22"/>
       <c r="AU47" s="23"/>
-      <c r="AV47" s="50"/>
+      <c r="AV47" s="26"/>
     </row>
     <row r="48" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="37"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -2727,7 +2727,7 @@
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
       <c r="Y48" s="11"/>
-      <c r="AF48" s="51" t="s">
+      <c r="AF48" s="3" t="s">
         <v>85</v>
       </c>
       <c r="AG48" s="6" t="s">
@@ -2749,12 +2749,12 @@
       <c r="AS48" s="16"/>
       <c r="AT48" s="16"/>
       <c r="AU48" s="17"/>
-      <c r="AV48" s="48" t="s">
+      <c r="AV48" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:48" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="38"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -2778,7 +2778,7 @@
       <c r="W49" s="13"/>
       <c r="X49" s="13"/>
       <c r="Y49" s="14"/>
-      <c r="AF49" s="52"/>
+      <c r="AF49" s="4"/>
       <c r="AG49" s="9"/>
       <c r="AH49" s="10"/>
       <c r="AI49" s="10"/>
@@ -2794,10 +2794,10 @@
       <c r="AS49" s="19"/>
       <c r="AT49" s="19"/>
       <c r="AU49" s="20"/>
-      <c r="AV49" s="49"/>
+      <c r="AV49" s="25"/>
     </row>
     <row r="50" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="36">
+      <c r="B50" s="51">
         <v>2</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -2829,7 +2829,7 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="8"/>
-      <c r="AF50" s="53"/>
+      <c r="AF50" s="5"/>
       <c r="AG50" s="12"/>
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
@@ -2845,10 +2845,10 @@
       <c r="AS50" s="22"/>
       <c r="AT50" s="22"/>
       <c r="AU50" s="23"/>
-      <c r="AV50" s="50"/>
+      <c r="AV50" s="26"/>
     </row>
     <row r="51" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="37"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -2872,7 +2872,7 @@
       <c r="W51" s="10"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="11"/>
-      <c r="AF51" s="51">
+      <c r="AF51" s="3">
         <v>10</v>
       </c>
       <c r="AG51" s="6" t="s">
@@ -2894,12 +2894,12 @@
       <c r="AS51" s="16"/>
       <c r="AT51" s="16"/>
       <c r="AU51" s="17"/>
-      <c r="AV51" s="48" t="s">
+      <c r="AV51" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="2:48" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="38"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -2923,7 +2923,7 @@
       <c r="W52" s="13"/>
       <c r="X52" s="13"/>
       <c r="Y52" s="14"/>
-      <c r="AF52" s="52"/>
+      <c r="AF52" s="4"/>
       <c r="AG52" s="9"/>
       <c r="AH52" s="10"/>
       <c r="AI52" s="10"/>
@@ -2939,10 +2939,10 @@
       <c r="AS52" s="19"/>
       <c r="AT52" s="19"/>
       <c r="AU52" s="20"/>
-      <c r="AV52" s="49"/>
+      <c r="AV52" s="25"/>
     </row>
     <row r="53" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="36">
+      <c r="B53" s="51">
         <v>3</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2974,7 +2974,7 @@
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="8"/>
-      <c r="AF53" s="53"/>
+      <c r="AF53" s="5"/>
       <c r="AG53" s="12"/>
       <c r="AH53" s="13"/>
       <c r="AI53" s="13"/>
@@ -2990,10 +2990,10 @@
       <c r="AS53" s="22"/>
       <c r="AT53" s="22"/>
       <c r="AU53" s="23"/>
-      <c r="AV53" s="50"/>
+      <c r="AV53" s="26"/>
     </row>
     <row r="54" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="37"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -3019,7 +3019,7 @@
       <c r="Y54" s="11"/>
     </row>
     <row r="55" spans="2:48" ht="161" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="38"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="12"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -3045,7 +3045,7 @@
       <c r="Y55" s="14"/>
     </row>
     <row r="56" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="36">
+      <c r="B56" s="51">
         <v>4</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -3079,7 +3079,7 @@
       <c r="Y56" s="8"/>
     </row>
     <row r="57" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="37"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -3105,7 +3105,7 @@
       <c r="Y57" s="11"/>
     </row>
     <row r="58" spans="2:48" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="38"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -3129,34 +3129,34 @@
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
       <c r="Y58" s="14"/>
-      <c r="AF58" s="24" t="s">
+      <c r="AF58" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AG58" s="27" t="s">
+      <c r="AG58" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AH58" s="28"/>
-      <c r="AI58" s="28"/>
-      <c r="AJ58" s="28"/>
-      <c r="AK58" s="28"/>
-      <c r="AL58" s="28"/>
-      <c r="AM58" s="29"/>
-      <c r="AN58" s="27" t="s">
+      <c r="AH58" s="31"/>
+      <c r="AI58" s="31"/>
+      <c r="AJ58" s="31"/>
+      <c r="AK58" s="31"/>
+      <c r="AL58" s="31"/>
+      <c r="AM58" s="32"/>
+      <c r="AN58" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AO58" s="28"/>
-      <c r="AP58" s="28"/>
-      <c r="AQ58" s="28"/>
-      <c r="AR58" s="28"/>
-      <c r="AS58" s="28"/>
-      <c r="AT58" s="28"/>
-      <c r="AU58" s="29"/>
-      <c r="AV58" s="24" t="s">
+      <c r="AO58" s="31"/>
+      <c r="AP58" s="31"/>
+      <c r="AQ58" s="31"/>
+      <c r="AR58" s="31"/>
+      <c r="AS58" s="31"/>
+      <c r="AT58" s="31"/>
+      <c r="AU58" s="32"/>
+      <c r="AV58" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="36">
+      <c r="B59" s="51">
         <v>5</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -3188,26 +3188,26 @@
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="8"/>
-      <c r="AF59" s="25"/>
-      <c r="AG59" s="30"/>
-      <c r="AH59" s="31"/>
-      <c r="AI59" s="31"/>
-      <c r="AJ59" s="31"/>
-      <c r="AK59" s="31"/>
-      <c r="AL59" s="31"/>
-      <c r="AM59" s="32"/>
-      <c r="AN59" s="30"/>
-      <c r="AO59" s="31"/>
-      <c r="AP59" s="31"/>
-      <c r="AQ59" s="31"/>
-      <c r="AR59" s="31"/>
-      <c r="AS59" s="31"/>
-      <c r="AT59" s="31"/>
-      <c r="AU59" s="32"/>
-      <c r="AV59" s="25"/>
+      <c r="AF59" s="28"/>
+      <c r="AG59" s="33"/>
+      <c r="AH59" s="34"/>
+      <c r="AI59" s="34"/>
+      <c r="AJ59" s="34"/>
+      <c r="AK59" s="34"/>
+      <c r="AL59" s="34"/>
+      <c r="AM59" s="35"/>
+      <c r="AN59" s="33"/>
+      <c r="AO59" s="34"/>
+      <c r="AP59" s="34"/>
+      <c r="AQ59" s="34"/>
+      <c r="AR59" s="34"/>
+      <c r="AS59" s="34"/>
+      <c r="AT59" s="34"/>
+      <c r="AU59" s="35"/>
+      <c r="AV59" s="28"/>
     </row>
     <row r="60" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="37"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
@@ -3231,26 +3231,26 @@
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
       <c r="Y60" s="11"/>
-      <c r="AF60" s="26"/>
-      <c r="AG60" s="33"/>
-      <c r="AH60" s="34"/>
-      <c r="AI60" s="34"/>
-      <c r="AJ60" s="34"/>
-      <c r="AK60" s="34"/>
-      <c r="AL60" s="34"/>
-      <c r="AM60" s="35"/>
-      <c r="AN60" s="33"/>
-      <c r="AO60" s="34"/>
-      <c r="AP60" s="34"/>
-      <c r="AQ60" s="34"/>
-      <c r="AR60" s="34"/>
-      <c r="AS60" s="34"/>
-      <c r="AT60" s="34"/>
-      <c r="AU60" s="35"/>
-      <c r="AV60" s="26"/>
+      <c r="AF60" s="29"/>
+      <c r="AG60" s="36"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" s="37"/>
+      <c r="AJ60" s="37"/>
+      <c r="AK60" s="37"/>
+      <c r="AL60" s="37"/>
+      <c r="AM60" s="38"/>
+      <c r="AN60" s="36"/>
+      <c r="AO60" s="37"/>
+      <c r="AP60" s="37"/>
+      <c r="AQ60" s="37"/>
+      <c r="AR60" s="37"/>
+      <c r="AS60" s="37"/>
+      <c r="AT60" s="37"/>
+      <c r="AU60" s="38"/>
+      <c r="AV60" s="29"/>
     </row>
     <row r="61" spans="2:48" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="38"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="12"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
@@ -3274,7 +3274,7 @@
       <c r="W61" s="13"/>
       <c r="X61" s="13"/>
       <c r="Y61" s="14"/>
-      <c r="AF61" s="51" t="s">
+      <c r="AF61" s="3" t="s">
         <v>110</v>
       </c>
       <c r="AG61" s="6" t="s">
@@ -3296,12 +3296,12 @@
       <c r="AS61" s="16"/>
       <c r="AT61" s="16"/>
       <c r="AU61" s="17"/>
-      <c r="AV61" s="48" t="s">
+      <c r="AV61" s="24" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="62" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="36">
+      <c r="B62" s="51">
         <v>6</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -3333,7 +3333,7 @@
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="8"/>
-      <c r="AF62" s="52"/>
+      <c r="AF62" s="4"/>
       <c r="AG62" s="9"/>
       <c r="AH62" s="10"/>
       <c r="AI62" s="10"/>
@@ -3349,10 +3349,10 @@
       <c r="AS62" s="19"/>
       <c r="AT62" s="19"/>
       <c r="AU62" s="20"/>
-      <c r="AV62" s="49"/>
+      <c r="AV62" s="25"/>
     </row>
     <row r="63" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="37"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="9"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
@@ -3376,7 +3376,7 @@
       <c r="W63" s="10"/>
       <c r="X63" s="10"/>
       <c r="Y63" s="11"/>
-      <c r="AF63" s="53"/>
+      <c r="AF63" s="5"/>
       <c r="AG63" s="12"/>
       <c r="AH63" s="13"/>
       <c r="AI63" s="13"/>
@@ -3392,10 +3392,10 @@
       <c r="AS63" s="22"/>
       <c r="AT63" s="22"/>
       <c r="AU63" s="23"/>
-      <c r="AV63" s="50"/>
+      <c r="AV63" s="26"/>
     </row>
     <row r="64" spans="2:48" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="38"/>
+      <c r="B64" s="53"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -3419,7 +3419,7 @@
       <c r="W64" s="13"/>
       <c r="X64" s="13"/>
       <c r="Y64" s="14"/>
-      <c r="AF64" s="51" t="s">
+      <c r="AF64" s="3" t="s">
         <v>111</v>
       </c>
       <c r="AG64" s="6" t="s">
@@ -3441,12 +3441,12 @@
       <c r="AS64" s="16"/>
       <c r="AT64" s="16"/>
       <c r="AU64" s="17"/>
-      <c r="AV64" s="48" t="s">
+      <c r="AV64" s="24" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="36">
+      <c r="B65" s="51">
         <v>7</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -3478,7 +3478,7 @@
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="8"/>
-      <c r="AF65" s="52"/>
+      <c r="AF65" s="4"/>
       <c r="AG65" s="9"/>
       <c r="AH65" s="10"/>
       <c r="AI65" s="10"/>
@@ -3494,10 +3494,10 @@
       <c r="AS65" s="19"/>
       <c r="AT65" s="19"/>
       <c r="AU65" s="20"/>
-      <c r="AV65" s="49"/>
+      <c r="AV65" s="25"/>
     </row>
     <row r="66" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="37"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="9"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
@@ -3521,7 +3521,7 @@
       <c r="W66" s="10"/>
       <c r="X66" s="10"/>
       <c r="Y66" s="11"/>
-      <c r="AF66" s="53"/>
+      <c r="AF66" s="5"/>
       <c r="AG66" s="12"/>
       <c r="AH66" s="13"/>
       <c r="AI66" s="13"/>
@@ -3537,10 +3537,10 @@
       <c r="AS66" s="22"/>
       <c r="AT66" s="22"/>
       <c r="AU66" s="23"/>
-      <c r="AV66" s="50"/>
+      <c r="AV66" s="26"/>
     </row>
     <row r="67" spans="2:48" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="38"/>
+      <c r="B67" s="53"/>
       <c r="C67" s="12"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -3564,7 +3564,7 @@
       <c r="W67" s="13"/>
       <c r="X67" s="13"/>
       <c r="Y67" s="14"/>
-      <c r="AF67" s="51" t="s">
+      <c r="AF67" s="3" t="s">
         <v>112</v>
       </c>
       <c r="AG67" s="6" t="s">
@@ -3586,12 +3586,12 @@
       <c r="AS67" s="16"/>
       <c r="AT67" s="16"/>
       <c r="AU67" s="17"/>
-      <c r="AV67" s="48" t="s">
+      <c r="AV67" s="24" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="36">
+      <c r="B68" s="51">
         <v>8</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -3623,7 +3623,7 @@
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
       <c r="Y68" s="8"/>
-      <c r="AF68" s="52"/>
+      <c r="AF68" s="4"/>
       <c r="AG68" s="9"/>
       <c r="AH68" s="10"/>
       <c r="AI68" s="10"/>
@@ -3639,10 +3639,10 @@
       <c r="AS68" s="19"/>
       <c r="AT68" s="19"/>
       <c r="AU68" s="20"/>
-      <c r="AV68" s="49"/>
+      <c r="AV68" s="25"/>
     </row>
     <row r="69" spans="2:48" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="37"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="9"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -3666,7 +3666,7 @@
       <c r="W69" s="10"/>
       <c r="X69" s="10"/>
       <c r="Y69" s="11"/>
-      <c r="AF69" s="53"/>
+      <c r="AF69" s="5"/>
       <c r="AG69" s="12"/>
       <c r="AH69" s="13"/>
       <c r="AI69" s="13"/>
@@ -3682,10 +3682,10 @@
       <c r="AS69" s="22"/>
       <c r="AT69" s="22"/>
       <c r="AU69" s="23"/>
-      <c r="AV69" s="50"/>
+      <c r="AV69" s="26"/>
     </row>
     <row r="70" spans="2:48" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="38"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="12"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -3709,7 +3709,7 @@
       <c r="W70" s="13"/>
       <c r="X70" s="13"/>
       <c r="Y70" s="14"/>
-      <c r="AF70" s="51" t="s">
+      <c r="AF70" s="3" t="s">
         <v>113</v>
       </c>
       <c r="AG70" s="6" t="s">
@@ -3731,12 +3731,12 @@
       <c r="AS70" s="16"/>
       <c r="AT70" s="16"/>
       <c r="AU70" s="17"/>
-      <c r="AV70" s="48" t="s">
+      <c r="AV70" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="71" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="36">
+      <c r="B71" s="51">
         <v>9</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -3768,7 +3768,7 @@
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
       <c r="Y71" s="8"/>
-      <c r="AF71" s="52"/>
+      <c r="AF71" s="4"/>
       <c r="AG71" s="9"/>
       <c r="AH71" s="10"/>
       <c r="AI71" s="10"/>
@@ -3784,10 +3784,10 @@
       <c r="AS71" s="19"/>
       <c r="AT71" s="19"/>
       <c r="AU71" s="20"/>
-      <c r="AV71" s="49"/>
+      <c r="AV71" s="25"/>
     </row>
     <row r="72" spans="2:48" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="37"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -3811,7 +3811,7 @@
       <c r="W72" s="10"/>
       <c r="X72" s="10"/>
       <c r="Y72" s="11"/>
-      <c r="AF72" s="53"/>
+      <c r="AF72" s="5"/>
       <c r="AG72" s="12"/>
       <c r="AH72" s="13"/>
       <c r="AI72" s="13"/>
@@ -3827,10 +3827,10 @@
       <c r="AS72" s="22"/>
       <c r="AT72" s="22"/>
       <c r="AU72" s="23"/>
-      <c r="AV72" s="50"/>
+      <c r="AV72" s="26"/>
     </row>
     <row r="73" spans="2:48" ht="110" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="38"/>
+      <c r="B73" s="53"/>
       <c r="C73" s="12"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -3854,7 +3854,7 @@
       <c r="W73" s="13"/>
       <c r="X73" s="13"/>
       <c r="Y73" s="14"/>
-      <c r="AF73" s="51">
+      <c r="AF73" s="3">
         <v>5</v>
       </c>
       <c r="AG73" s="6" t="s">
@@ -3876,12 +3876,12 @@
       <c r="AS73" s="16"/>
       <c r="AT73" s="16"/>
       <c r="AU73" s="17"/>
-      <c r="AV73" s="48" t="s">
+      <c r="AV73" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="74" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="36">
+      <c r="B74" s="51">
         <v>10</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -3913,7 +3913,7 @@
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="8"/>
-      <c r="AF74" s="52"/>
+      <c r="AF74" s="4"/>
       <c r="AG74" s="9"/>
       <c r="AH74" s="10"/>
       <c r="AI74" s="10"/>
@@ -3929,10 +3929,10 @@
       <c r="AS74" s="19"/>
       <c r="AT74" s="19"/>
       <c r="AU74" s="20"/>
-      <c r="AV74" s="49"/>
+      <c r="AV74" s="25"/>
     </row>
     <row r="75" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="37"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="9"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -3956,7 +3956,7 @@
       <c r="W75" s="10"/>
       <c r="X75" s="10"/>
       <c r="Y75" s="11"/>
-      <c r="AF75" s="53"/>
+      <c r="AF75" s="5"/>
       <c r="AG75" s="12"/>
       <c r="AH75" s="13"/>
       <c r="AI75" s="13"/>
@@ -3972,10 +3972,10 @@
       <c r="AS75" s="22"/>
       <c r="AT75" s="22"/>
       <c r="AU75" s="23"/>
-      <c r="AV75" s="50"/>
+      <c r="AV75" s="26"/>
     </row>
     <row r="76" spans="2:48" ht="104" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="38"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -3999,7 +3999,7 @@
       <c r="W76" s="13"/>
       <c r="X76" s="13"/>
       <c r="Y76" s="14"/>
-      <c r="AF76" s="51">
+      <c r="AF76" s="3">
         <v>7</v>
       </c>
       <c r="AG76" s="6" t="s">
@@ -4021,12 +4021,12 @@
       <c r="AS76" s="16"/>
       <c r="AT76" s="16"/>
       <c r="AU76" s="17"/>
-      <c r="AV76" s="48" t="s">
+      <c r="AV76" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="77" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="36">
+      <c r="B77" s="51">
         <v>11</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -4058,7 +4058,7 @@
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="8"/>
-      <c r="AF77" s="52"/>
+      <c r="AF77" s="4"/>
       <c r="AG77" s="9"/>
       <c r="AH77" s="10"/>
       <c r="AI77" s="10"/>
@@ -4074,10 +4074,10 @@
       <c r="AS77" s="19"/>
       <c r="AT77" s="19"/>
       <c r="AU77" s="20"/>
-      <c r="AV77" s="49"/>
+      <c r="AV77" s="25"/>
     </row>
     <row r="78" spans="2:48" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="37"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="9"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -4101,7 +4101,7 @@
       <c r="W78" s="10"/>
       <c r="X78" s="10"/>
       <c r="Y78" s="11"/>
-      <c r="AF78" s="53"/>
+      <c r="AF78" s="5"/>
       <c r="AG78" s="12"/>
       <c r="AH78" s="13"/>
       <c r="AI78" s="13"/>
@@ -4117,10 +4117,10 @@
       <c r="AS78" s="22"/>
       <c r="AT78" s="22"/>
       <c r="AU78" s="23"/>
-      <c r="AV78" s="50"/>
+      <c r="AV78" s="26"/>
     </row>
     <row r="79" spans="2:48" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="38"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="12"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -4144,7 +4144,7 @@
       <c r="W79" s="13"/>
       <c r="X79" s="13"/>
       <c r="Y79" s="14"/>
-      <c r="AF79" s="51">
+      <c r="AF79" s="3">
         <v>6</v>
       </c>
       <c r="AG79" s="6" t="s">
@@ -4166,12 +4166,12 @@
       <c r="AS79" s="16"/>
       <c r="AT79" s="16"/>
       <c r="AU79" s="17"/>
-      <c r="AV79" s="48" t="s">
+      <c r="AV79" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="80" spans="2:48" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="36">
+      <c r="B80" s="51">
         <v>12</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -4203,7 +4203,7 @@
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
       <c r="Y80" s="8"/>
-      <c r="AF80" s="52"/>
+      <c r="AF80" s="4"/>
       <c r="AG80" s="9"/>
       <c r="AH80" s="10"/>
       <c r="AI80" s="10"/>
@@ -4219,10 +4219,10 @@
       <c r="AS80" s="19"/>
       <c r="AT80" s="19"/>
       <c r="AU80" s="20"/>
-      <c r="AV80" s="49"/>
+      <c r="AV80" s="25"/>
     </row>
     <row r="81" spans="2:48" ht="1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="37"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="9"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
@@ -4246,7 +4246,7 @@
       <c r="W81" s="10"/>
       <c r="X81" s="10"/>
       <c r="Y81" s="11"/>
-      <c r="AF81" s="53"/>
+      <c r="AF81" s="5"/>
       <c r="AG81" s="12"/>
       <c r="AH81" s="13"/>
       <c r="AI81" s="13"/>
@@ -4262,10 +4262,10 @@
       <c r="AS81" s="22"/>
       <c r="AT81" s="22"/>
       <c r="AU81" s="23"/>
-      <c r="AV81" s="50"/>
+      <c r="AV81" s="26"/>
     </row>
     <row r="82" spans="2:48" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="38"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="12"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -4289,7 +4289,7 @@
       <c r="W82" s="13"/>
       <c r="X82" s="13"/>
       <c r="Y82" s="14"/>
-      <c r="AF82" s="51">
+      <c r="AF82" s="3">
         <v>8</v>
       </c>
       <c r="AG82" s="6" t="s">
@@ -4311,12 +4311,12 @@
       <c r="AS82" s="16"/>
       <c r="AT82" s="16"/>
       <c r="AU82" s="17"/>
-      <c r="AV82" s="48" t="s">
+      <c r="AV82" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AF83" s="52"/>
+      <c r="AF83" s="4"/>
       <c r="AG83" s="9"/>
       <c r="AH83" s="10"/>
       <c r="AI83" s="10"/>
@@ -4332,10 +4332,10 @@
       <c r="AS83" s="19"/>
       <c r="AT83" s="19"/>
       <c r="AU83" s="20"/>
-      <c r="AV83" s="49"/>
+      <c r="AV83" s="25"/>
     </row>
     <row r="84" spans="2:48" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF84" s="53"/>
+      <c r="AF84" s="5"/>
       <c r="AG84" s="12"/>
       <c r="AH84" s="13"/>
       <c r="AI84" s="13"/>
@@ -4351,7 +4351,7 @@
       <c r="AS84" s="22"/>
       <c r="AT84" s="22"/>
       <c r="AU84" s="23"/>
-      <c r="AV84" s="50"/>
+      <c r="AV84" s="26"/>
     </row>
     <row r="85" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
@@ -4372,7 +4372,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="AF85" s="51" t="s">
+      <c r="AF85" s="3" t="s">
         <v>114</v>
       </c>
       <c r="AG85" s="6" t="s">
@@ -4394,44 +4394,44 @@
       <c r="AS85" s="16"/>
       <c r="AT85" s="16"/>
       <c r="AU85" s="17"/>
-      <c r="AV85" s="48" t="s">
+      <c r="AV85" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="86" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="27" t="s">
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="28"/>
-      <c r="P86" s="28"/>
-      <c r="Q86" s="29"/>
-      <c r="R86" s="27" t="s">
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="32"/>
+      <c r="R86" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="S86" s="28"/>
-      <c r="T86" s="28"/>
-      <c r="U86" s="28"/>
-      <c r="V86" s="28"/>
-      <c r="W86" s="28"/>
-      <c r="X86" s="28"/>
-      <c r="Y86" s="29"/>
-      <c r="AF86" s="52"/>
+      <c r="S86" s="31"/>
+      <c r="T86" s="31"/>
+      <c r="U86" s="31"/>
+      <c r="V86" s="31"/>
+      <c r="W86" s="31"/>
+      <c r="X86" s="31"/>
+      <c r="Y86" s="32"/>
+      <c r="AF86" s="4"/>
       <c r="AG86" s="9"/>
       <c r="AH86" s="10"/>
       <c r="AI86" s="10"/>
@@ -4447,34 +4447,34 @@
       <c r="AS86" s="19"/>
       <c r="AT86" s="19"/>
       <c r="AU86" s="20"/>
-      <c r="AV86" s="49"/>
+      <c r="AV86" s="25"/>
     </row>
     <row r="87" spans="2:48" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="25"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="31"/>
-      <c r="M87" s="31"/>
-      <c r="N87" s="31"/>
-      <c r="O87" s="31"/>
-      <c r="P87" s="31"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="30"/>
-      <c r="S87" s="31"/>
-      <c r="T87" s="31"/>
-      <c r="U87" s="31"/>
-      <c r="V87" s="31"/>
-      <c r="W87" s="31"/>
-      <c r="X87" s="31"/>
-      <c r="Y87" s="32"/>
-      <c r="AF87" s="53"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="33"/>
+      <c r="S87" s="34"/>
+      <c r="T87" s="34"/>
+      <c r="U87" s="34"/>
+      <c r="V87" s="34"/>
+      <c r="W87" s="34"/>
+      <c r="X87" s="34"/>
+      <c r="Y87" s="35"/>
+      <c r="AF87" s="5"/>
       <c r="AG87" s="12"/>
       <c r="AH87" s="13"/>
       <c r="AI87" s="13"/>
@@ -4490,34 +4490,34 @@
       <c r="AS87" s="22"/>
       <c r="AT87" s="22"/>
       <c r="AU87" s="23"/>
-      <c r="AV87" s="50"/>
+      <c r="AV87" s="26"/>
     </row>
     <row r="88" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="26"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="33"/>
-      <c r="S88" s="34"/>
-      <c r="T88" s="34"/>
-      <c r="U88" s="34"/>
-      <c r="V88" s="34"/>
-      <c r="W88" s="34"/>
-      <c r="X88" s="34"/>
-      <c r="Y88" s="35"/>
-      <c r="AF88" s="51">
+      <c r="B88" s="29"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="38"/>
+      <c r="AF88" s="3">
         <v>12</v>
       </c>
       <c r="AG88" s="6" t="s">
@@ -4539,12 +4539,12 @@
       <c r="AS88" s="16"/>
       <c r="AT88" s="16"/>
       <c r="AU88" s="17"/>
-      <c r="AV88" s="48" t="s">
+      <c r="AV88" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="89" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="3">
+      <c r="B89" s="48">
         <v>1</v>
       </c>
       <c r="C89" s="6" t="s">
@@ -4576,7 +4576,7 @@
       <c r="W89" s="7"/>
       <c r="X89" s="7"/>
       <c r="Y89" s="8"/>
-      <c r="AF89" s="52"/>
+      <c r="AF89" s="4"/>
       <c r="AG89" s="9"/>
       <c r="AH89" s="10"/>
       <c r="AI89" s="10"/>
@@ -4592,10 +4592,10 @@
       <c r="AS89" s="19"/>
       <c r="AT89" s="19"/>
       <c r="AU89" s="20"/>
-      <c r="AV89" s="49"/>
+      <c r="AV89" s="25"/>
     </row>
     <row r="90" spans="2:48" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="4"/>
+      <c r="B90" s="49"/>
       <c r="C90" s="9"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
@@ -4619,7 +4619,7 @@
       <c r="W90" s="10"/>
       <c r="X90" s="10"/>
       <c r="Y90" s="11"/>
-      <c r="AF90" s="53"/>
+      <c r="AF90" s="5"/>
       <c r="AG90" s="12"/>
       <c r="AH90" s="13"/>
       <c r="AI90" s="13"/>
@@ -4635,10 +4635,10 @@
       <c r="AS90" s="22"/>
       <c r="AT90" s="22"/>
       <c r="AU90" s="23"/>
-      <c r="AV90" s="50"/>
+      <c r="AV90" s="26"/>
     </row>
     <row r="91" spans="2:48" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="5"/>
+      <c r="B91" s="50"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -4662,7 +4662,7 @@
       <c r="W91" s="13"/>
       <c r="X91" s="13"/>
       <c r="Y91" s="14"/>
-      <c r="AF91" s="51">
+      <c r="AF91" s="3">
         <v>11</v>
       </c>
       <c r="AG91" s="6" t="s">
@@ -4684,12 +4684,12 @@
       <c r="AS91" s="16"/>
       <c r="AT91" s="16"/>
       <c r="AU91" s="17"/>
-      <c r="AV91" s="48" t="s">
+      <c r="AV91" s="24" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="92" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="3">
+      <c r="B92" s="48">
         <v>2</v>
       </c>
       <c r="C92" s="6" t="s">
@@ -4721,7 +4721,7 @@
       <c r="W92" s="7"/>
       <c r="X92" s="7"/>
       <c r="Y92" s="8"/>
-      <c r="AF92" s="52"/>
+      <c r="AF92" s="4"/>
       <c r="AG92" s="9"/>
       <c r="AH92" s="10"/>
       <c r="AI92" s="10"/>
@@ -4737,10 +4737,10 @@
       <c r="AS92" s="19"/>
       <c r="AT92" s="19"/>
       <c r="AU92" s="20"/>
-      <c r="AV92" s="49"/>
+      <c r="AV92" s="25"/>
     </row>
     <row r="93" spans="2:48" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="4"/>
+      <c r="B93" s="49"/>
       <c r="C93" s="9"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -4764,7 +4764,7 @@
       <c r="W93" s="10"/>
       <c r="X93" s="10"/>
       <c r="Y93" s="11"/>
-      <c r="AF93" s="53"/>
+      <c r="AF93" s="5"/>
       <c r="AG93" s="12"/>
       <c r="AH93" s="13"/>
       <c r="AI93" s="13"/>
@@ -4780,10 +4780,10 @@
       <c r="AS93" s="22"/>
       <c r="AT93" s="22"/>
       <c r="AU93" s="23"/>
-      <c r="AV93" s="50"/>
+      <c r="AV93" s="26"/>
     </row>
     <row r="94" spans="2:48" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="5"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="12"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -4807,7 +4807,7 @@
       <c r="W94" s="13"/>
       <c r="X94" s="13"/>
       <c r="Y94" s="14"/>
-      <c r="AF94" s="51">
+      <c r="AF94" s="3">
         <v>12</v>
       </c>
       <c r="AG94" s="6" t="s">
@@ -4829,12 +4829,12 @@
       <c r="AS94" s="16"/>
       <c r="AT94" s="16"/>
       <c r="AU94" s="17"/>
-      <c r="AV94" s="48" t="s">
+      <c r="AV94" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="95" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="3">
+      <c r="B95" s="48">
         <v>3</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -4866,7 +4866,7 @@
       <c r="W95" s="7"/>
       <c r="X95" s="7"/>
       <c r="Y95" s="8"/>
-      <c r="AF95" s="52"/>
+      <c r="AF95" s="4"/>
       <c r="AG95" s="9"/>
       <c r="AH95" s="10"/>
       <c r="AI95" s="10"/>
@@ -4882,10 +4882,10 @@
       <c r="AS95" s="19"/>
       <c r="AT95" s="19"/>
       <c r="AU95" s="20"/>
-      <c r="AV95" s="49"/>
+      <c r="AV95" s="25"/>
     </row>
     <row r="96" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="4"/>
+      <c r="B96" s="49"/>
       <c r="C96" s="9"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
@@ -4909,7 +4909,7 @@
       <c r="W96" s="10"/>
       <c r="X96" s="10"/>
       <c r="Y96" s="11"/>
-      <c r="AF96" s="53"/>
+      <c r="AF96" s="5"/>
       <c r="AG96" s="12"/>
       <c r="AH96" s="13"/>
       <c r="AI96" s="13"/>
@@ -4925,10 +4925,10 @@
       <c r="AS96" s="22"/>
       <c r="AT96" s="22"/>
       <c r="AU96" s="23"/>
-      <c r="AV96" s="50"/>
+      <c r="AV96" s="26"/>
     </row>
     <row r="97" spans="2:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="5"/>
+      <c r="B97" s="50"/>
       <c r="C97" s="12"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -4954,7 +4954,7 @@
       <c r="Y97" s="14"/>
     </row>
     <row r="98" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="3">
+      <c r="B98" s="48">
         <v>4</v>
       </c>
       <c r="C98" s="6" t="s">
@@ -4988,7 +4988,7 @@
       <c r="Y98" s="8"/>
     </row>
     <row r="99" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="4"/>
+      <c r="B99" s="49"/>
       <c r="C99" s="9"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
@@ -5014,7 +5014,7 @@
       <c r="Y99" s="11"/>
     </row>
     <row r="100" spans="2:25" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="5"/>
+      <c r="B100" s="50"/>
       <c r="C100" s="12"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
@@ -5040,7 +5040,7 @@
       <c r="Y100" s="14"/>
     </row>
     <row r="101" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="3">
+      <c r="B101" s="48">
         <v>5</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -5074,7 +5074,7 @@
       <c r="Y101" s="8"/>
     </row>
     <row r="102" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="4"/>
+      <c r="B102" s="49"/>
       <c r="C102" s="9"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -5100,7 +5100,7 @@
       <c r="Y102" s="11"/>
     </row>
     <row r="103" spans="2:25" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="5"/>
+      <c r="B103" s="50"/>
       <c r="C103" s="12"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -5126,7 +5126,7 @@
       <c r="Y103" s="14"/>
     </row>
     <row r="104" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="3">
+      <c r="B104" s="48">
         <v>6</v>
       </c>
       <c r="C104" s="6" t="s">
@@ -5160,7 +5160,7 @@
       <c r="Y104" s="8"/>
     </row>
     <row r="105" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="4"/>
+      <c r="B105" s="49"/>
       <c r="C105" s="9"/>
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
@@ -5186,7 +5186,7 @@
       <c r="Y105" s="11"/>
     </row>
     <row r="106" spans="2:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="5"/>
+      <c r="B106" s="50"/>
       <c r="C106" s="12"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
@@ -5212,7 +5212,7 @@
       <c r="Y106" s="14"/>
     </row>
     <row r="107" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="3">
+      <c r="B107" s="48">
         <v>7</v>
       </c>
       <c r="C107" s="6" t="s">
@@ -5246,7 +5246,7 @@
       <c r="Y107" s="8"/>
     </row>
     <row r="108" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="4"/>
+      <c r="B108" s="49"/>
       <c r="C108" s="9"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
@@ -5272,7 +5272,7 @@
       <c r="Y108" s="11"/>
     </row>
     <row r="109" spans="2:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="5"/>
+      <c r="B109" s="50"/>
       <c r="C109" s="12"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
@@ -5298,7 +5298,7 @@
       <c r="Y109" s="14"/>
     </row>
     <row r="110" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="3">
+      <c r="B110" s="48">
         <v>8</v>
       </c>
       <c r="C110" s="6" t="s">
@@ -5332,7 +5332,7 @@
       <c r="Y110" s="8"/>
     </row>
     <row r="111" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="4"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="9"/>
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
@@ -5358,7 +5358,7 @@
       <c r="Y111" s="11"/>
     </row>
     <row r="112" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="5"/>
+      <c r="B112" s="50"/>
       <c r="C112" s="12"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -5384,7 +5384,7 @@
       <c r="Y112" s="14"/>
     </row>
     <row r="113" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="3">
+      <c r="B113" s="48">
         <v>9</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -5418,7 +5418,7 @@
       <c r="Y113" s="8"/>
     </row>
     <row r="114" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="4"/>
+      <c r="B114" s="49"/>
       <c r="C114" s="9"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
@@ -5444,7 +5444,7 @@
       <c r="Y114" s="11"/>
     </row>
     <row r="115" spans="2:25" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="5"/>
+      <c r="B115" s="50"/>
       <c r="C115" s="12"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
@@ -5470,7 +5470,7 @@
       <c r="Y115" s="14"/>
     </row>
     <row r="116" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="3">
+      <c r="B116" s="48">
         <v>10</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -5504,7 +5504,7 @@
       <c r="Y116" s="8"/>
     </row>
     <row r="117" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="4"/>
+      <c r="B117" s="49"/>
       <c r="C117" s="9"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
@@ -5530,7 +5530,7 @@
       <c r="Y117" s="11"/>
     </row>
     <row r="118" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="5"/>
+      <c r="B118" s="50"/>
       <c r="C118" s="12"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
@@ -5556,7 +5556,7 @@
       <c r="Y118" s="14"/>
     </row>
     <row r="119" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="3">
+      <c r="B119" s="48">
         <v>11</v>
       </c>
       <c r="C119" s="6" t="s">
@@ -5590,7 +5590,7 @@
       <c r="Y119" s="8"/>
     </row>
     <row r="120" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="4"/>
+      <c r="B120" s="49"/>
       <c r="C120" s="9"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
@@ -5616,7 +5616,7 @@
       <c r="Y120" s="11"/>
     </row>
     <row r="121" spans="2:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="5"/>
+      <c r="B121" s="50"/>
       <c r="C121" s="12"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
@@ -5642,7 +5642,7 @@
       <c r="Y121" s="14"/>
     </row>
     <row r="122" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="3">
+      <c r="B122" s="48">
         <v>12</v>
       </c>
       <c r="C122" s="6" t="s">
@@ -5676,7 +5676,7 @@
       <c r="Y122" s="8"/>
     </row>
     <row r="123" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="4"/>
+      <c r="B123" s="49"/>
       <c r="C123" s="9"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
@@ -5702,7 +5702,7 @@
       <c r="Y123" s="11"/>
     </row>
     <row r="124" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="5"/>
+      <c r="B124" s="50"/>
       <c r="C124" s="12"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
@@ -5729,110 +5729,138 @@
     </row>
   </sheetData>
   <mergeCells count="260">
-    <mergeCell ref="AF91:AF93"/>
-    <mergeCell ref="AG91:AM93"/>
-    <mergeCell ref="AN91:AU93"/>
-    <mergeCell ref="AV91:AV93"/>
-    <mergeCell ref="AF94:AF96"/>
-    <mergeCell ref="AG94:AM96"/>
-    <mergeCell ref="AN94:AU96"/>
-    <mergeCell ref="AV94:AV96"/>
-    <mergeCell ref="AF82:AF84"/>
-    <mergeCell ref="AG82:AM84"/>
-    <mergeCell ref="AN82:AU84"/>
-    <mergeCell ref="AV82:AV84"/>
-    <mergeCell ref="AF85:AF87"/>
-    <mergeCell ref="AG85:AM87"/>
-    <mergeCell ref="AN85:AU87"/>
-    <mergeCell ref="AV85:AV87"/>
-    <mergeCell ref="AF88:AF90"/>
-    <mergeCell ref="AG88:AM90"/>
-    <mergeCell ref="AN88:AU90"/>
-    <mergeCell ref="AV88:AV90"/>
-    <mergeCell ref="AF73:AF75"/>
-    <mergeCell ref="AG73:AM75"/>
-    <mergeCell ref="AN73:AU75"/>
-    <mergeCell ref="AV73:AV75"/>
-    <mergeCell ref="AF76:AF78"/>
-    <mergeCell ref="AG76:AM78"/>
-    <mergeCell ref="AN76:AU78"/>
-    <mergeCell ref="AV76:AV78"/>
-    <mergeCell ref="AF79:AF81"/>
-    <mergeCell ref="AG79:AM81"/>
-    <mergeCell ref="AN79:AU81"/>
-    <mergeCell ref="AV79:AV81"/>
-    <mergeCell ref="AF64:AF66"/>
-    <mergeCell ref="AG64:AM66"/>
-    <mergeCell ref="AN64:AU66"/>
-    <mergeCell ref="AV64:AV66"/>
-    <mergeCell ref="AF67:AF69"/>
-    <mergeCell ref="AG67:AM69"/>
-    <mergeCell ref="AN67:AU69"/>
-    <mergeCell ref="AV67:AV69"/>
-    <mergeCell ref="AF70:AF72"/>
-    <mergeCell ref="AG70:AM72"/>
-    <mergeCell ref="AN70:AU72"/>
-    <mergeCell ref="AV70:AV72"/>
-    <mergeCell ref="AF51:AF53"/>
-    <mergeCell ref="AG51:AM53"/>
-    <mergeCell ref="AN51:AU53"/>
-    <mergeCell ref="AV51:AV53"/>
-    <mergeCell ref="AF58:AF60"/>
-    <mergeCell ref="AG58:AM60"/>
-    <mergeCell ref="AN58:AU60"/>
-    <mergeCell ref="AV58:AV60"/>
-    <mergeCell ref="AF61:AF63"/>
-    <mergeCell ref="AG61:AM63"/>
-    <mergeCell ref="AN61:AU63"/>
-    <mergeCell ref="AV61:AV63"/>
-    <mergeCell ref="AF42:AF44"/>
-    <mergeCell ref="AG42:AM44"/>
-    <mergeCell ref="AN42:AU44"/>
-    <mergeCell ref="AV42:AV44"/>
-    <mergeCell ref="AF45:AF47"/>
-    <mergeCell ref="AG45:AM47"/>
-    <mergeCell ref="AN45:AU47"/>
-    <mergeCell ref="AV45:AV47"/>
-    <mergeCell ref="AF48:AF50"/>
-    <mergeCell ref="AG48:AM50"/>
-    <mergeCell ref="AN48:AU50"/>
-    <mergeCell ref="AV48:AV50"/>
-    <mergeCell ref="AN33:AU35"/>
-    <mergeCell ref="AV33:AV35"/>
-    <mergeCell ref="AF36:AF38"/>
-    <mergeCell ref="AG36:AM38"/>
-    <mergeCell ref="AN36:AU38"/>
-    <mergeCell ref="AV36:AV38"/>
-    <mergeCell ref="AF39:AF41"/>
-    <mergeCell ref="AG39:AM41"/>
-    <mergeCell ref="AN39:AU41"/>
-    <mergeCell ref="AV39:AV41"/>
-    <mergeCell ref="AF33:AF35"/>
-    <mergeCell ref="AG33:AM35"/>
-    <mergeCell ref="AN24:AU26"/>
-    <mergeCell ref="AV24:AV26"/>
-    <mergeCell ref="AF27:AF29"/>
-    <mergeCell ref="AG27:AM29"/>
-    <mergeCell ref="AN27:AU29"/>
-    <mergeCell ref="AV27:AV29"/>
-    <mergeCell ref="AF30:AF32"/>
-    <mergeCell ref="AG30:AM32"/>
-    <mergeCell ref="AN30:AU32"/>
-    <mergeCell ref="AV30:AV32"/>
-    <mergeCell ref="AF24:AF26"/>
-    <mergeCell ref="AG24:AM26"/>
-    <mergeCell ref="AV15:AV17"/>
-    <mergeCell ref="AF18:AF20"/>
-    <mergeCell ref="AG18:AM20"/>
-    <mergeCell ref="AN18:AU20"/>
-    <mergeCell ref="AV18:AV20"/>
-    <mergeCell ref="AF21:AF23"/>
-    <mergeCell ref="AG21:AM23"/>
-    <mergeCell ref="AN21:AU23"/>
-    <mergeCell ref="AV21:AV23"/>
-    <mergeCell ref="AF15:AF17"/>
-    <mergeCell ref="AG15:AM17"/>
-    <mergeCell ref="AN15:AU17"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="C122:I124"/>
+    <mergeCell ref="J122:Q124"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:I118"/>
+    <mergeCell ref="J116:Q118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:I121"/>
+    <mergeCell ref="J119:Q121"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:I112"/>
+    <mergeCell ref="J110:Q112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:I115"/>
+    <mergeCell ref="J113:Q115"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:I106"/>
+    <mergeCell ref="J104:Q106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:I109"/>
+    <mergeCell ref="J107:Q109"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:I100"/>
+    <mergeCell ref="J98:Q100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:I103"/>
+    <mergeCell ref="J101:Q103"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:I94"/>
+    <mergeCell ref="J92:Q94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:I97"/>
+    <mergeCell ref="J95:Q97"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:I88"/>
+    <mergeCell ref="J86:Q88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:I91"/>
+    <mergeCell ref="J89:Q91"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:I55"/>
+    <mergeCell ref="J53:Q55"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:I82"/>
+    <mergeCell ref="J80:Q82"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:I76"/>
+    <mergeCell ref="J74:Q76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:I79"/>
+    <mergeCell ref="J77:Q79"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:I70"/>
+    <mergeCell ref="J68:Q70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:I73"/>
+    <mergeCell ref="J71:Q73"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:I67"/>
+    <mergeCell ref="J65:Q67"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:I58"/>
+    <mergeCell ref="J56:Q58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:I61"/>
+    <mergeCell ref="J59:Q61"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:I52"/>
+    <mergeCell ref="J50:Q52"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:I46"/>
+    <mergeCell ref="J44:Q46"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:I64"/>
+    <mergeCell ref="J62:Q64"/>
+    <mergeCell ref="C23:I25"/>
+    <mergeCell ref="J20:Q22"/>
+    <mergeCell ref="J23:Q25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:I28"/>
+    <mergeCell ref="J26:Q28"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:I49"/>
+    <mergeCell ref="J47:Q49"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:I7"/>
+    <mergeCell ref="J2:Q4"/>
+    <mergeCell ref="J5:Q7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:I10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:I13"/>
+    <mergeCell ref="J8:Q10"/>
+    <mergeCell ref="J11:Q13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:I16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:I19"/>
+    <mergeCell ref="J14:Q16"/>
+    <mergeCell ref="J17:Q19"/>
+    <mergeCell ref="R80:Y82"/>
+    <mergeCell ref="R86:Y88"/>
+    <mergeCell ref="R89:Y91"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:I22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:I37"/>
+    <mergeCell ref="J35:Q37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:I40"/>
+    <mergeCell ref="J38:Q40"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:I31"/>
+    <mergeCell ref="J29:Q31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:I34"/>
+    <mergeCell ref="J32:Q34"/>
+    <mergeCell ref="R92:Y94"/>
+    <mergeCell ref="R95:Y97"/>
+    <mergeCell ref="R98:Y100"/>
+    <mergeCell ref="R44:Y46"/>
+    <mergeCell ref="R47:Y49"/>
+    <mergeCell ref="R50:Y52"/>
+    <mergeCell ref="R53:Y55"/>
+    <mergeCell ref="R56:Y58"/>
+    <mergeCell ref="R59:Y61"/>
+    <mergeCell ref="R62:Y64"/>
+    <mergeCell ref="R65:Y67"/>
+    <mergeCell ref="R68:Y70"/>
     <mergeCell ref="R101:Y103"/>
     <mergeCell ref="R104:Y106"/>
     <mergeCell ref="R107:Y109"/>
@@ -5857,138 +5885,110 @@
     <mergeCell ref="R71:Y73"/>
     <mergeCell ref="R74:Y76"/>
     <mergeCell ref="R77:Y79"/>
-    <mergeCell ref="R92:Y94"/>
-    <mergeCell ref="R95:Y97"/>
-    <mergeCell ref="R98:Y100"/>
-    <mergeCell ref="R44:Y46"/>
-    <mergeCell ref="R47:Y49"/>
-    <mergeCell ref="R50:Y52"/>
-    <mergeCell ref="R53:Y55"/>
-    <mergeCell ref="R56:Y58"/>
-    <mergeCell ref="R59:Y61"/>
-    <mergeCell ref="R62:Y64"/>
-    <mergeCell ref="R65:Y67"/>
-    <mergeCell ref="R68:Y70"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:I16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:I19"/>
-    <mergeCell ref="J14:Q16"/>
-    <mergeCell ref="J17:Q19"/>
-    <mergeCell ref="R80:Y82"/>
-    <mergeCell ref="R86:Y88"/>
-    <mergeCell ref="R89:Y91"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:I22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:I37"/>
-    <mergeCell ref="J35:Q37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:I40"/>
-    <mergeCell ref="J38:Q40"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:I31"/>
-    <mergeCell ref="J29:Q31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:I34"/>
-    <mergeCell ref="J32:Q34"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:I7"/>
-    <mergeCell ref="J2:Q4"/>
-    <mergeCell ref="J5:Q7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:I10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:I13"/>
-    <mergeCell ref="J8:Q10"/>
-    <mergeCell ref="J11:Q13"/>
-    <mergeCell ref="C23:I25"/>
-    <mergeCell ref="J20:Q22"/>
-    <mergeCell ref="J23:Q25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:I28"/>
-    <mergeCell ref="J26:Q28"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:I49"/>
-    <mergeCell ref="J47:Q49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:I52"/>
-    <mergeCell ref="J50:Q52"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:I46"/>
-    <mergeCell ref="J44:Q46"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:I64"/>
-    <mergeCell ref="J62:Q64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:I67"/>
-    <mergeCell ref="J65:Q67"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:I58"/>
-    <mergeCell ref="J56:Q58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:I61"/>
-    <mergeCell ref="J59:Q61"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:I88"/>
-    <mergeCell ref="J86:Q88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:I91"/>
-    <mergeCell ref="J89:Q91"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:I55"/>
-    <mergeCell ref="J53:Q55"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:I82"/>
-    <mergeCell ref="J80:Q82"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:I76"/>
-    <mergeCell ref="J74:Q76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:I79"/>
-    <mergeCell ref="J77:Q79"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:I70"/>
-    <mergeCell ref="J68:Q70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:I73"/>
-    <mergeCell ref="J71:Q73"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:I100"/>
-    <mergeCell ref="J98:Q100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:I103"/>
-    <mergeCell ref="J101:Q103"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:I94"/>
-    <mergeCell ref="J92:Q94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:I97"/>
-    <mergeCell ref="J95:Q97"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:I112"/>
-    <mergeCell ref="J110:Q112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:I115"/>
-    <mergeCell ref="J113:Q115"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:I106"/>
-    <mergeCell ref="J104:Q106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:I109"/>
-    <mergeCell ref="J107:Q109"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="C122:I124"/>
-    <mergeCell ref="J122:Q124"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:I118"/>
-    <mergeCell ref="J116:Q118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:I121"/>
-    <mergeCell ref="J119:Q121"/>
+    <mergeCell ref="AV15:AV17"/>
+    <mergeCell ref="AF18:AF20"/>
+    <mergeCell ref="AG18:AM20"/>
+    <mergeCell ref="AN18:AU20"/>
+    <mergeCell ref="AV18:AV20"/>
+    <mergeCell ref="AF21:AF23"/>
+    <mergeCell ref="AG21:AM23"/>
+    <mergeCell ref="AN21:AU23"/>
+    <mergeCell ref="AV21:AV23"/>
+    <mergeCell ref="AF15:AF17"/>
+    <mergeCell ref="AG15:AM17"/>
+    <mergeCell ref="AN15:AU17"/>
+    <mergeCell ref="AN24:AU26"/>
+    <mergeCell ref="AV24:AV26"/>
+    <mergeCell ref="AF27:AF29"/>
+    <mergeCell ref="AG27:AM29"/>
+    <mergeCell ref="AN27:AU29"/>
+    <mergeCell ref="AV27:AV29"/>
+    <mergeCell ref="AF30:AF32"/>
+    <mergeCell ref="AG30:AM32"/>
+    <mergeCell ref="AN30:AU32"/>
+    <mergeCell ref="AV30:AV32"/>
+    <mergeCell ref="AF24:AF26"/>
+    <mergeCell ref="AG24:AM26"/>
+    <mergeCell ref="AN33:AU35"/>
+    <mergeCell ref="AV33:AV35"/>
+    <mergeCell ref="AF36:AF38"/>
+    <mergeCell ref="AG36:AM38"/>
+    <mergeCell ref="AN36:AU38"/>
+    <mergeCell ref="AV36:AV38"/>
+    <mergeCell ref="AF39:AF41"/>
+    <mergeCell ref="AG39:AM41"/>
+    <mergeCell ref="AN39:AU41"/>
+    <mergeCell ref="AV39:AV41"/>
+    <mergeCell ref="AF33:AF35"/>
+    <mergeCell ref="AG33:AM35"/>
+    <mergeCell ref="AF42:AF44"/>
+    <mergeCell ref="AG42:AM44"/>
+    <mergeCell ref="AN42:AU44"/>
+    <mergeCell ref="AV42:AV44"/>
+    <mergeCell ref="AF45:AF47"/>
+    <mergeCell ref="AG45:AM47"/>
+    <mergeCell ref="AN45:AU47"/>
+    <mergeCell ref="AV45:AV47"/>
+    <mergeCell ref="AF48:AF50"/>
+    <mergeCell ref="AG48:AM50"/>
+    <mergeCell ref="AN48:AU50"/>
+    <mergeCell ref="AV48:AV50"/>
+    <mergeCell ref="AF51:AF53"/>
+    <mergeCell ref="AG51:AM53"/>
+    <mergeCell ref="AN51:AU53"/>
+    <mergeCell ref="AV51:AV53"/>
+    <mergeCell ref="AF58:AF60"/>
+    <mergeCell ref="AG58:AM60"/>
+    <mergeCell ref="AN58:AU60"/>
+    <mergeCell ref="AV58:AV60"/>
+    <mergeCell ref="AF61:AF63"/>
+    <mergeCell ref="AG61:AM63"/>
+    <mergeCell ref="AN61:AU63"/>
+    <mergeCell ref="AV61:AV63"/>
+    <mergeCell ref="AF64:AF66"/>
+    <mergeCell ref="AG64:AM66"/>
+    <mergeCell ref="AN64:AU66"/>
+    <mergeCell ref="AV64:AV66"/>
+    <mergeCell ref="AF67:AF69"/>
+    <mergeCell ref="AG67:AM69"/>
+    <mergeCell ref="AN67:AU69"/>
+    <mergeCell ref="AV67:AV69"/>
+    <mergeCell ref="AF70:AF72"/>
+    <mergeCell ref="AG70:AM72"/>
+    <mergeCell ref="AN70:AU72"/>
+    <mergeCell ref="AV70:AV72"/>
+    <mergeCell ref="AF73:AF75"/>
+    <mergeCell ref="AG73:AM75"/>
+    <mergeCell ref="AN73:AU75"/>
+    <mergeCell ref="AV73:AV75"/>
+    <mergeCell ref="AF76:AF78"/>
+    <mergeCell ref="AG76:AM78"/>
+    <mergeCell ref="AN76:AU78"/>
+    <mergeCell ref="AV76:AV78"/>
+    <mergeCell ref="AF79:AF81"/>
+    <mergeCell ref="AG79:AM81"/>
+    <mergeCell ref="AN79:AU81"/>
+    <mergeCell ref="AV79:AV81"/>
+    <mergeCell ref="AF91:AF93"/>
+    <mergeCell ref="AG91:AM93"/>
+    <mergeCell ref="AN91:AU93"/>
+    <mergeCell ref="AV91:AV93"/>
+    <mergeCell ref="AF94:AF96"/>
+    <mergeCell ref="AG94:AM96"/>
+    <mergeCell ref="AN94:AU96"/>
+    <mergeCell ref="AV94:AV96"/>
+    <mergeCell ref="AF82:AF84"/>
+    <mergeCell ref="AG82:AM84"/>
+    <mergeCell ref="AN82:AU84"/>
+    <mergeCell ref="AV82:AV84"/>
+    <mergeCell ref="AF85:AF87"/>
+    <mergeCell ref="AG85:AM87"/>
+    <mergeCell ref="AN85:AU87"/>
+    <mergeCell ref="AV85:AV87"/>
+    <mergeCell ref="AF88:AF90"/>
+    <mergeCell ref="AG88:AM90"/>
+    <mergeCell ref="AN88:AU90"/>
+    <mergeCell ref="AV88:AV90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/YGA_SIEM_PROJECT/RİSK YÖNETİMİ TABLOSU Taslak 2.xlsx
+++ b/YGA_SIEM_PROJECT/RİSK YÖNETİMİ TABLOSU Taslak 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siyaksares/Developer/GitHub/SIEM_Project/YGA_SIEM_PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B20B795-6A1E-3841-917C-579975C022E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269AA1F0-EC79-C040-BBEC-67036738CC5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{224CDE68-0482-4635-9F92-16D671AE651E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{224CDE68-0482-4635-9F92-16D671AE651E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -598,13 +598,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,15 +661,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,6 +697,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,22 +733,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B6D5A4-D95F-450C-ACDC-78A0C7D620E2}">
   <dimension ref="B1:AV124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V48" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="AN61" sqref="AN61:AU63"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15:AU17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1112,72 +1112,72 @@
       </c>
     </row>
     <row r="2" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="30" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="27" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="28"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="29"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="48">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="6"/>
@@ -1197,10 +1197,10 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="24"/>
+      <c r="R5" s="48"/>
     </row>
     <row r="6" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="49"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1216,10 +1216,10 @@
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="20"/>
-      <c r="R6" s="25"/>
+      <c r="R6" s="49"/>
     </row>
     <row r="7" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="50"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -1235,10 +1235,10 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="23"/>
-      <c r="R7" s="26"/>
+      <c r="R7" s="50"/>
     </row>
     <row r="8" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="48">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
@@ -1258,10 +1258,10 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
-      <c r="R8" s="24"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="49"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -1277,10 +1277,10 @@
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="20"/>
-      <c r="R9" s="25"/>
+      <c r="R9" s="49"/>
     </row>
     <row r="10" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="50"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1296,10 +1296,10 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="23"/>
-      <c r="R10" s="26"/>
+      <c r="R10" s="50"/>
     </row>
     <row r="11" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="48">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
       <c r="C11" s="6"/>
@@ -1319,10 +1319,10 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="24"/>
+      <c r="R11" s="48"/>
     </row>
     <row r="12" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -1338,10 +1338,10 @@
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="20"/>
-      <c r="R12" s="25"/>
+      <c r="R12" s="49"/>
     </row>
     <row r="13" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1357,10 +1357,10 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="23"/>
-      <c r="R13" s="26"/>
+      <c r="R13" s="50"/>
     </row>
     <row r="14" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48">
+      <c r="B14" s="3">
         <v>4</v>
       </c>
       <c r="C14" s="6"/>
@@ -1380,10 +1380,10 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="24"/>
+      <c r="R14" s="48"/>
     </row>
     <row r="15" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="49"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -1399,35 +1399,35 @@
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="25"/>
-      <c r="AF15" s="27" t="s">
+      <c r="R15" s="49"/>
+      <c r="AF15" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="AG15" s="30" t="s">
+      <c r="AG15" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="30" t="s">
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="27" t="s">
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="50"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -1443,27 +1443,27 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="23"/>
-      <c r="R16" s="26"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="35"/>
-      <c r="AV16" s="28"/>
+      <c r="R16" s="50"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="25"/>
     </row>
     <row r="17" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="48">
+      <c r="B17" s="3">
         <v>5</v>
       </c>
       <c r="C17" s="6"/>
@@ -1483,27 +1483,27 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="24"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
-      <c r="AT17" s="37"/>
-      <c r="AU17" s="38"/>
-      <c r="AV17" s="29"/>
+      <c r="R17" s="48"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="35"/>
+      <c r="AV17" s="26"/>
     </row>
     <row r="18" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="49"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -1519,9 +1519,9 @@
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="25"/>
+      <c r="R18" s="49"/>
       <c r="U18" s="2"/>
-      <c r="AF18" s="3">
+      <c r="AF18" s="51">
         <v>1</v>
       </c>
       <c r="AG18" s="6" t="s">
@@ -1543,12 +1543,12 @@
       <c r="AS18" s="16"/>
       <c r="AT18" s="16"/>
       <c r="AU18" s="17"/>
-      <c r="AV18" s="24" t="s">
+      <c r="AV18" s="48" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="50"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -1564,8 +1564,8 @@
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="23"/>
-      <c r="R19" s="26"/>
-      <c r="AF19" s="4"/>
+      <c r="R19" s="50"/>
+      <c r="AF19" s="52"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
@@ -1581,10 +1581,10 @@
       <c r="AS19" s="19"/>
       <c r="AT19" s="19"/>
       <c r="AU19" s="20"/>
-      <c r="AV19" s="25"/>
+      <c r="AV19" s="49"/>
     </row>
     <row r="20" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="48">
+      <c r="B20" s="3">
         <v>6</v>
       </c>
       <c r="C20" s="6"/>
@@ -1604,8 +1604,8 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="24"/>
-      <c r="AF20" s="5"/>
+      <c r="R20" s="48"/>
+      <c r="AF20" s="53"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
@@ -1621,10 +1621,10 @@
       <c r="AS20" s="22"/>
       <c r="AT20" s="22"/>
       <c r="AU20" s="23"/>
-      <c r="AV20" s="26"/>
+      <c r="AV20" s="50"/>
     </row>
     <row r="21" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="49"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1640,8 +1640,8 @@
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="20"/>
-      <c r="R21" s="25"/>
-      <c r="AF21" s="3">
+      <c r="R21" s="49"/>
+      <c r="AF21" s="51">
         <v>2</v>
       </c>
       <c r="AG21" s="6" t="s">
@@ -1663,12 +1663,12 @@
       <c r="AS21" s="16"/>
       <c r="AT21" s="16"/>
       <c r="AU21" s="17"/>
-      <c r="AV21" s="24" t="s">
+      <c r="AV21" s="48" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="50"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -1684,8 +1684,8 @@
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="23"/>
-      <c r="R22" s="26"/>
-      <c r="AF22" s="4"/>
+      <c r="R22" s="50"/>
+      <c r="AF22" s="52"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
@@ -1701,10 +1701,10 @@
       <c r="AS22" s="19"/>
       <c r="AT22" s="19"/>
       <c r="AU22" s="20"/>
-      <c r="AV22" s="25"/>
+      <c r="AV22" s="49"/>
     </row>
     <row r="23" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="48">
+      <c r="B23" s="3">
         <v>7</v>
       </c>
       <c r="C23" s="6"/>
@@ -1724,8 +1724,8 @@
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
-      <c r="R23" s="24"/>
-      <c r="AF23" s="5"/>
+      <c r="R23" s="48"/>
+      <c r="AF23" s="53"/>
       <c r="AG23" s="12"/>
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
@@ -1741,10 +1741,10 @@
       <c r="AS23" s="22"/>
       <c r="AT23" s="22"/>
       <c r="AU23" s="23"/>
-      <c r="AV23" s="26"/>
+      <c r="AV23" s="50"/>
     </row>
     <row r="24" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="49"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -1760,8 +1760,8 @@
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="20"/>
-      <c r="R24" s="25"/>
-      <c r="AF24" s="3">
+      <c r="R24" s="49"/>
+      <c r="AF24" s="51">
         <v>3</v>
       </c>
       <c r="AG24" s="6" t="s">
@@ -1783,12 +1783,12 @@
       <c r="AS24" s="16"/>
       <c r="AT24" s="16"/>
       <c r="AU24" s="17"/>
-      <c r="AV24" s="24" t="s">
+      <c r="AV24" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="50"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -1804,8 +1804,8 @@
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="23"/>
-      <c r="R25" s="26"/>
-      <c r="AF25" s="4"/>
+      <c r="R25" s="50"/>
+      <c r="AF25" s="52"/>
       <c r="AG25" s="9"/>
       <c r="AH25" s="10"/>
       <c r="AI25" s="10"/>
@@ -1821,10 +1821,10 @@
       <c r="AS25" s="19"/>
       <c r="AT25" s="19"/>
       <c r="AU25" s="20"/>
-      <c r="AV25" s="25"/>
+      <c r="AV25" s="49"/>
     </row>
     <row r="26" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="48">
+      <c r="B26" s="3">
         <v>8</v>
       </c>
       <c r="C26" s="6"/>
@@ -1844,8 +1844,8 @@
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="17"/>
-      <c r="R26" s="24"/>
-      <c r="AF26" s="5"/>
+      <c r="R26" s="48"/>
+      <c r="AF26" s="53"/>
       <c r="AG26" s="12"/>
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
@@ -1861,10 +1861,10 @@
       <c r="AS26" s="22"/>
       <c r="AT26" s="22"/>
       <c r="AU26" s="23"/>
-      <c r="AV26" s="26"/>
+      <c r="AV26" s="50"/>
     </row>
     <row r="27" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="49"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -1880,8 +1880,8 @@
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="20"/>
-      <c r="R27" s="25"/>
-      <c r="AF27" s="3">
+      <c r="R27" s="49"/>
+      <c r="AF27" s="51">
         <v>4</v>
       </c>
       <c r="AG27" s="6" t="s">
@@ -1903,12 +1903,12 @@
       <c r="AS27" s="16"/>
       <c r="AT27" s="16"/>
       <c r="AU27" s="17"/>
-      <c r="AV27" s="24" t="s">
+      <c r="AV27" s="48" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="50"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -1924,8 +1924,8 @@
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="23"/>
-      <c r="R28" s="26"/>
-      <c r="AF28" s="4"/>
+      <c r="R28" s="50"/>
+      <c r="AF28" s="52"/>
       <c r="AG28" s="9"/>
       <c r="AH28" s="10"/>
       <c r="AI28" s="10"/>
@@ -1941,10 +1941,10 @@
       <c r="AS28" s="19"/>
       <c r="AT28" s="19"/>
       <c r="AU28" s="20"/>
-      <c r="AV28" s="25"/>
+      <c r="AV28" s="49"/>
     </row>
     <row r="29" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="48">
+      <c r="B29" s="3">
         <v>9</v>
       </c>
       <c r="C29" s="6"/>
@@ -1964,8 +1964,8 @@
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
-      <c r="R29" s="24"/>
-      <c r="AF29" s="5"/>
+      <c r="R29" s="48"/>
+      <c r="AF29" s="53"/>
       <c r="AG29" s="12"/>
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
@@ -1981,10 +1981,10 @@
       <c r="AS29" s="22"/>
       <c r="AT29" s="22"/>
       <c r="AU29" s="23"/>
-      <c r="AV29" s="26"/>
+      <c r="AV29" s="50"/>
     </row>
     <row r="30" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="49"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -2000,8 +2000,8 @@
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
       <c r="Q30" s="20"/>
-      <c r="R30" s="25"/>
-      <c r="AF30" s="3">
+      <c r="R30" s="49"/>
+      <c r="AF30" s="51">
         <v>5</v>
       </c>
       <c r="AG30" s="6" t="s">
@@ -2023,12 +2023,12 @@
       <c r="AS30" s="16"/>
       <c r="AT30" s="16"/>
       <c r="AU30" s="17"/>
-      <c r="AV30" s="24" t="s">
+      <c r="AV30" s="48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="50"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -2044,8 +2044,8 @@
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="23"/>
-      <c r="R31" s="26"/>
-      <c r="AF31" s="4"/>
+      <c r="R31" s="50"/>
+      <c r="AF31" s="52"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
@@ -2061,10 +2061,10 @@
       <c r="AS31" s="19"/>
       <c r="AT31" s="19"/>
       <c r="AU31" s="20"/>
-      <c r="AV31" s="25"/>
+      <c r="AV31" s="49"/>
     </row>
     <row r="32" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="48">
+      <c r="B32" s="3">
         <v>10</v>
       </c>
       <c r="C32" s="6"/>
@@ -2084,8 +2084,8 @@
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
-      <c r="R32" s="24"/>
-      <c r="AF32" s="5"/>
+      <c r="R32" s="48"/>
+      <c r="AF32" s="53"/>
       <c r="AG32" s="12"/>
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
@@ -2101,10 +2101,10 @@
       <c r="AS32" s="22"/>
       <c r="AT32" s="22"/>
       <c r="AU32" s="23"/>
-      <c r="AV32" s="26"/>
+      <c r="AV32" s="50"/>
     </row>
     <row r="33" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="49"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -2120,8 +2120,8 @@
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
       <c r="Q33" s="20"/>
-      <c r="R33" s="25"/>
-      <c r="AF33" s="3">
+      <c r="R33" s="49"/>
+      <c r="AF33" s="51">
         <v>6</v>
       </c>
       <c r="AG33" s="6" t="s">
@@ -2143,12 +2143,12 @@
       <c r="AS33" s="16"/>
       <c r="AT33" s="16"/>
       <c r="AU33" s="17"/>
-      <c r="AV33" s="24" t="s">
+      <c r="AV33" s="48" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="50"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -2164,8 +2164,8 @@
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="23"/>
-      <c r="R34" s="26"/>
-      <c r="AF34" s="4"/>
+      <c r="R34" s="50"/>
+      <c r="AF34" s="52"/>
       <c r="AG34" s="9"/>
       <c r="AH34" s="10"/>
       <c r="AI34" s="10"/>
@@ -2181,10 +2181,10 @@
       <c r="AS34" s="19"/>
       <c r="AT34" s="19"/>
       <c r="AU34" s="20"/>
-      <c r="AV34" s="25"/>
+      <c r="AV34" s="49"/>
     </row>
     <row r="35" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="48">
+      <c r="B35" s="3">
         <v>11</v>
       </c>
       <c r="C35" s="6"/>
@@ -2204,8 +2204,8 @@
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
-      <c r="R35" s="24"/>
-      <c r="AF35" s="5"/>
+      <c r="R35" s="48"/>
+      <c r="AF35" s="53"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
@@ -2221,10 +2221,10 @@
       <c r="AS35" s="22"/>
       <c r="AT35" s="22"/>
       <c r="AU35" s="23"/>
-      <c r="AV35" s="26"/>
+      <c r="AV35" s="50"/>
     </row>
     <row r="36" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="49"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -2240,8 +2240,8 @@
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="20"/>
-      <c r="R36" s="25"/>
-      <c r="AF36" s="3">
+      <c r="R36" s="49"/>
+      <c r="AF36" s="51">
         <v>6</v>
       </c>
       <c r="AG36" s="6" t="s">
@@ -2263,12 +2263,12 @@
       <c r="AS36" s="16"/>
       <c r="AT36" s="16"/>
       <c r="AU36" s="17"/>
-      <c r="AV36" s="24" t="s">
+      <c r="AV36" s="48" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="50"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -2284,8 +2284,8 @@
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="23"/>
-      <c r="R37" s="26"/>
-      <c r="AF37" s="4"/>
+      <c r="R37" s="50"/>
+      <c r="AF37" s="52"/>
       <c r="AG37" s="9"/>
       <c r="AH37" s="10"/>
       <c r="AI37" s="10"/>
@@ -2301,10 +2301,10 @@
       <c r="AS37" s="19"/>
       <c r="AT37" s="19"/>
       <c r="AU37" s="20"/>
-      <c r="AV37" s="25"/>
+      <c r="AV37" s="49"/>
     </row>
     <row r="38" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="48">
+      <c r="B38" s="3">
         <v>12</v>
       </c>
       <c r="C38" s="6"/>
@@ -2324,8 +2324,8 @@
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
-      <c r="R38" s="24"/>
-      <c r="AF38" s="5"/>
+      <c r="R38" s="48"/>
+      <c r="AF38" s="53"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="13"/>
       <c r="AI38" s="13"/>
@@ -2341,10 +2341,10 @@
       <c r="AS38" s="22"/>
       <c r="AT38" s="22"/>
       <c r="AU38" s="23"/>
-      <c r="AV38" s="26"/>
+      <c r="AV38" s="50"/>
     </row>
     <row r="39" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="49"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -2360,8 +2360,8 @@
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="20"/>
-      <c r="R39" s="25"/>
-      <c r="AF39" s="3" t="s">
+      <c r="R39" s="49"/>
+      <c r="AF39" s="51" t="s">
         <v>82</v>
       </c>
       <c r="AG39" s="6" t="s">
@@ -2383,12 +2383,12 @@
       <c r="AS39" s="16"/>
       <c r="AT39" s="16"/>
       <c r="AU39" s="17"/>
-      <c r="AV39" s="24" t="s">
+      <c r="AV39" s="48" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="50"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -2404,8 +2404,8 @@
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
       <c r="Q40" s="23"/>
-      <c r="R40" s="26"/>
-      <c r="AF40" s="4"/>
+      <c r="R40" s="50"/>
+      <c r="AF40" s="52"/>
       <c r="AG40" s="9"/>
       <c r="AH40" s="10"/>
       <c r="AI40" s="10"/>
@@ -2421,10 +2421,10 @@
       <c r="AS40" s="19"/>
       <c r="AT40" s="19"/>
       <c r="AU40" s="20"/>
-      <c r="AV40" s="25"/>
+      <c r="AV40" s="49"/>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AF41" s="5"/>
+      <c r="AF41" s="53"/>
       <c r="AG41" s="12"/>
       <c r="AH41" s="13"/>
       <c r="AI41" s="13"/>
@@ -2440,10 +2440,10 @@
       <c r="AS41" s="22"/>
       <c r="AT41" s="22"/>
       <c r="AU41" s="23"/>
-      <c r="AV41" s="26"/>
+      <c r="AV41" s="50"/>
     </row>
     <row r="42" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AF42" s="3" t="s">
+      <c r="AF42" s="51" t="s">
         <v>83</v>
       </c>
       <c r="AG42" s="6" t="s">
@@ -2465,7 +2465,7 @@
       <c r="AS42" s="16"/>
       <c r="AT42" s="16"/>
       <c r="AU42" s="17"/>
-      <c r="AV42" s="24" t="s">
+      <c r="AV42" s="48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="AF43" s="4"/>
+      <c r="AF43" s="52"/>
       <c r="AG43" s="9"/>
       <c r="AH43" s="10"/>
       <c r="AI43" s="10"/>
@@ -2504,10 +2504,10 @@
       <c r="AS43" s="19"/>
       <c r="AT43" s="19"/>
       <c r="AU43" s="20"/>
-      <c r="AV43" s="25"/>
+      <c r="AV43" s="49"/>
     </row>
     <row r="44" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="39" t="s">
@@ -2519,16 +2519,16 @@
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
       <c r="I44" s="41"/>
-      <c r="J44" s="30" t="s">
+      <c r="J44" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="32"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="29"/>
       <c r="R44" s="39" t="s">
         <v>1</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="W44" s="40"/>
       <c r="X44" s="40"/>
       <c r="Y44" s="41"/>
-      <c r="AF44" s="5"/>
+      <c r="AF44" s="53"/>
       <c r="AG44" s="12"/>
       <c r="AH44" s="13"/>
       <c r="AI44" s="13"/>
@@ -2555,10 +2555,10 @@
       <c r="AS44" s="22"/>
       <c r="AT44" s="22"/>
       <c r="AU44" s="23"/>
-      <c r="AV44" s="26"/>
+      <c r="AV44" s="50"/>
     </row>
     <row r="45" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="28"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="42"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
@@ -2566,14 +2566,14 @@
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="44"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="35"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="32"/>
       <c r="R45" s="42"/>
       <c r="S45" s="43"/>
       <c r="T45" s="43"/>
@@ -2582,7 +2582,7 @@
       <c r="W45" s="43"/>
       <c r="X45" s="43"/>
       <c r="Y45" s="44"/>
-      <c r="AF45" s="3" t="s">
+      <c r="AF45" s="51" t="s">
         <v>84</v>
       </c>
       <c r="AG45" s="6" t="s">
@@ -2604,12 +2604,12 @@
       <c r="AS45" s="16"/>
       <c r="AT45" s="16"/>
       <c r="AU45" s="17"/>
-      <c r="AV45" s="24" t="s">
+      <c r="AV45" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="29"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="45"/>
       <c r="D46" s="46"/>
       <c r="E46" s="46"/>
@@ -2617,14 +2617,14 @@
       <c r="G46" s="46"/>
       <c r="H46" s="46"/>
       <c r="I46" s="47"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="38"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="35"/>
       <c r="R46" s="45"/>
       <c r="S46" s="46"/>
       <c r="T46" s="46"/>
@@ -2633,7 +2633,7 @@
       <c r="W46" s="46"/>
       <c r="X46" s="46"/>
       <c r="Y46" s="47"/>
-      <c r="AF46" s="4"/>
+      <c r="AF46" s="52"/>
       <c r="AG46" s="9"/>
       <c r="AH46" s="10"/>
       <c r="AI46" s="10"/>
@@ -2649,10 +2649,10 @@
       <c r="AS46" s="19"/>
       <c r="AT46" s="19"/>
       <c r="AU46" s="20"/>
-      <c r="AV46" s="25"/>
+      <c r="AV46" s="49"/>
     </row>
     <row r="47" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="51">
+      <c r="B47" s="36">
         <v>1</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -2684,7 +2684,7 @@
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="8"/>
-      <c r="AF47" s="5"/>
+      <c r="AF47" s="53"/>
       <c r="AG47" s="12"/>
       <c r="AH47" s="13"/>
       <c r="AI47" s="13"/>
@@ -2700,10 +2700,10 @@
       <c r="AS47" s="22"/>
       <c r="AT47" s="22"/>
       <c r="AU47" s="23"/>
-      <c r="AV47" s="26"/>
+      <c r="AV47" s="50"/>
     </row>
     <row r="48" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="52"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -2727,7 +2727,7 @@
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
       <c r="Y48" s="11"/>
-      <c r="AF48" s="3" t="s">
+      <c r="AF48" s="51" t="s">
         <v>85</v>
       </c>
       <c r="AG48" s="6" t="s">
@@ -2749,12 +2749,12 @@
       <c r="AS48" s="16"/>
       <c r="AT48" s="16"/>
       <c r="AU48" s="17"/>
-      <c r="AV48" s="24" t="s">
+      <c r="AV48" s="48" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:48" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="53"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -2778,7 +2778,7 @@
       <c r="W49" s="13"/>
       <c r="X49" s="13"/>
       <c r="Y49" s="14"/>
-      <c r="AF49" s="4"/>
+      <c r="AF49" s="52"/>
       <c r="AG49" s="9"/>
       <c r="AH49" s="10"/>
       <c r="AI49" s="10"/>
@@ -2794,10 +2794,10 @@
       <c r="AS49" s="19"/>
       <c r="AT49" s="19"/>
       <c r="AU49" s="20"/>
-      <c r="AV49" s="25"/>
+      <c r="AV49" s="49"/>
     </row>
     <row r="50" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="51">
+      <c r="B50" s="36">
         <v>2</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -2829,7 +2829,7 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="8"/>
-      <c r="AF50" s="5"/>
+      <c r="AF50" s="53"/>
       <c r="AG50" s="12"/>
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
@@ -2845,10 +2845,10 @@
       <c r="AS50" s="22"/>
       <c r="AT50" s="22"/>
       <c r="AU50" s="23"/>
-      <c r="AV50" s="26"/>
+      <c r="AV50" s="50"/>
     </row>
     <row r="51" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="52"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -2872,7 +2872,7 @@
       <c r="W51" s="10"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="11"/>
-      <c r="AF51" s="3">
+      <c r="AF51" s="51">
         <v>10</v>
       </c>
       <c r="AG51" s="6" t="s">
@@ -2894,12 +2894,12 @@
       <c r="AS51" s="16"/>
       <c r="AT51" s="16"/>
       <c r="AU51" s="17"/>
-      <c r="AV51" s="24" t="s">
+      <c r="AV51" s="48" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="2:48" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="53"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -2923,7 +2923,7 @@
       <c r="W52" s="13"/>
       <c r="X52" s="13"/>
       <c r="Y52" s="14"/>
-      <c r="AF52" s="4"/>
+      <c r="AF52" s="52"/>
       <c r="AG52" s="9"/>
       <c r="AH52" s="10"/>
       <c r="AI52" s="10"/>
@@ -2939,10 +2939,10 @@
       <c r="AS52" s="19"/>
       <c r="AT52" s="19"/>
       <c r="AU52" s="20"/>
-      <c r="AV52" s="25"/>
+      <c r="AV52" s="49"/>
     </row>
     <row r="53" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="51">
+      <c r="B53" s="36">
         <v>3</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2974,7 +2974,7 @@
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="8"/>
-      <c r="AF53" s="5"/>
+      <c r="AF53" s="53"/>
       <c r="AG53" s="12"/>
       <c r="AH53" s="13"/>
       <c r="AI53" s="13"/>
@@ -2990,10 +2990,10 @@
       <c r="AS53" s="22"/>
       <c r="AT53" s="22"/>
       <c r="AU53" s="23"/>
-      <c r="AV53" s="26"/>
+      <c r="AV53" s="50"/>
     </row>
     <row r="54" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="52"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -3019,7 +3019,7 @@
       <c r="Y54" s="11"/>
     </row>
     <row r="55" spans="2:48" ht="161" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="53"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="12"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -3045,7 +3045,7 @@
       <c r="Y55" s="14"/>
     </row>
     <row r="56" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="51">
+      <c r="B56" s="36">
         <v>4</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -3079,7 +3079,7 @@
       <c r="Y56" s="8"/>
     </row>
     <row r="57" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="52"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -3105,7 +3105,7 @@
       <c r="Y57" s="11"/>
     </row>
     <row r="58" spans="2:48" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="53"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -3129,34 +3129,34 @@
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
       <c r="Y58" s="14"/>
-      <c r="AF58" s="27" t="s">
+      <c r="AF58" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="AG58" s="30" t="s">
+      <c r="AG58" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AH58" s="31"/>
-      <c r="AI58" s="31"/>
-      <c r="AJ58" s="31"/>
-      <c r="AK58" s="31"/>
-      <c r="AL58" s="31"/>
-      <c r="AM58" s="32"/>
-      <c r="AN58" s="30" t="s">
+      <c r="AH58" s="28"/>
+      <c r="AI58" s="28"/>
+      <c r="AJ58" s="28"/>
+      <c r="AK58" s="28"/>
+      <c r="AL58" s="28"/>
+      <c r="AM58" s="29"/>
+      <c r="AN58" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AO58" s="31"/>
-      <c r="AP58" s="31"/>
-      <c r="AQ58" s="31"/>
-      <c r="AR58" s="31"/>
-      <c r="AS58" s="31"/>
-      <c r="AT58" s="31"/>
-      <c r="AU58" s="32"/>
-      <c r="AV58" s="27" t="s">
+      <c r="AO58" s="28"/>
+      <c r="AP58" s="28"/>
+      <c r="AQ58" s="28"/>
+      <c r="AR58" s="28"/>
+      <c r="AS58" s="28"/>
+      <c r="AT58" s="28"/>
+      <c r="AU58" s="29"/>
+      <c r="AV58" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="51">
+      <c r="B59" s="36">
         <v>5</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -3188,26 +3188,26 @@
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="8"/>
-      <c r="AF59" s="28"/>
-      <c r="AG59" s="33"/>
-      <c r="AH59" s="34"/>
-      <c r="AI59" s="34"/>
-      <c r="AJ59" s="34"/>
-      <c r="AK59" s="34"/>
-      <c r="AL59" s="34"/>
-      <c r="AM59" s="35"/>
-      <c r="AN59" s="33"/>
-      <c r="AO59" s="34"/>
-      <c r="AP59" s="34"/>
-      <c r="AQ59" s="34"/>
-      <c r="AR59" s="34"/>
-      <c r="AS59" s="34"/>
-      <c r="AT59" s="34"/>
-      <c r="AU59" s="35"/>
-      <c r="AV59" s="28"/>
+      <c r="AF59" s="25"/>
+      <c r="AG59" s="30"/>
+      <c r="AH59" s="31"/>
+      <c r="AI59" s="31"/>
+      <c r="AJ59" s="31"/>
+      <c r="AK59" s="31"/>
+      <c r="AL59" s="31"/>
+      <c r="AM59" s="32"/>
+      <c r="AN59" s="30"/>
+      <c r="AO59" s="31"/>
+      <c r="AP59" s="31"/>
+      <c r="AQ59" s="31"/>
+      <c r="AR59" s="31"/>
+      <c r="AS59" s="31"/>
+      <c r="AT59" s="31"/>
+      <c r="AU59" s="32"/>
+      <c r="AV59" s="25"/>
     </row>
     <row r="60" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="52"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
@@ -3231,26 +3231,26 @@
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
       <c r="Y60" s="11"/>
-      <c r="AF60" s="29"/>
-      <c r="AG60" s="36"/>
-      <c r="AH60" s="37"/>
-      <c r="AI60" s="37"/>
-      <c r="AJ60" s="37"/>
-      <c r="AK60" s="37"/>
-      <c r="AL60" s="37"/>
-      <c r="AM60" s="38"/>
-      <c r="AN60" s="36"/>
-      <c r="AO60" s="37"/>
-      <c r="AP60" s="37"/>
-      <c r="AQ60" s="37"/>
-      <c r="AR60" s="37"/>
-      <c r="AS60" s="37"/>
-      <c r="AT60" s="37"/>
-      <c r="AU60" s="38"/>
-      <c r="AV60" s="29"/>
+      <c r="AF60" s="26"/>
+      <c r="AG60" s="33"/>
+      <c r="AH60" s="34"/>
+      <c r="AI60" s="34"/>
+      <c r="AJ60" s="34"/>
+      <c r="AK60" s="34"/>
+      <c r="AL60" s="34"/>
+      <c r="AM60" s="35"/>
+      <c r="AN60" s="33"/>
+      <c r="AO60" s="34"/>
+      <c r="AP60" s="34"/>
+      <c r="AQ60" s="34"/>
+      <c r="AR60" s="34"/>
+      <c r="AS60" s="34"/>
+      <c r="AT60" s="34"/>
+      <c r="AU60" s="35"/>
+      <c r="AV60" s="26"/>
     </row>
     <row r="61" spans="2:48" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="53"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="12"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
@@ -3274,7 +3274,7 @@
       <c r="W61" s="13"/>
       <c r="X61" s="13"/>
       <c r="Y61" s="14"/>
-      <c r="AF61" s="3" t="s">
+      <c r="AF61" s="51" t="s">
         <v>110</v>
       </c>
       <c r="AG61" s="6" t="s">
@@ -3296,12 +3296,12 @@
       <c r="AS61" s="16"/>
       <c r="AT61" s="16"/>
       <c r="AU61" s="17"/>
-      <c r="AV61" s="24" t="s">
+      <c r="AV61" s="48" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="62" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="51">
+      <c r="B62" s="36">
         <v>6</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -3333,7 +3333,7 @@
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="8"/>
-      <c r="AF62" s="4"/>
+      <c r="AF62" s="52"/>
       <c r="AG62" s="9"/>
       <c r="AH62" s="10"/>
       <c r="AI62" s="10"/>
@@ -3349,10 +3349,10 @@
       <c r="AS62" s="19"/>
       <c r="AT62" s="19"/>
       <c r="AU62" s="20"/>
-      <c r="AV62" s="25"/>
+      <c r="AV62" s="49"/>
     </row>
     <row r="63" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="52"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="9"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
@@ -3376,7 +3376,7 @@
       <c r="W63" s="10"/>
       <c r="X63" s="10"/>
       <c r="Y63" s="11"/>
-      <c r="AF63" s="5"/>
+      <c r="AF63" s="53"/>
       <c r="AG63" s="12"/>
       <c r="AH63" s="13"/>
       <c r="AI63" s="13"/>
@@ -3392,10 +3392,10 @@
       <c r="AS63" s="22"/>
       <c r="AT63" s="22"/>
       <c r="AU63" s="23"/>
-      <c r="AV63" s="26"/>
+      <c r="AV63" s="50"/>
     </row>
     <row r="64" spans="2:48" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="53"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -3419,7 +3419,7 @@
       <c r="W64" s="13"/>
       <c r="X64" s="13"/>
       <c r="Y64" s="14"/>
-      <c r="AF64" s="3" t="s">
+      <c r="AF64" s="51" t="s">
         <v>111</v>
       </c>
       <c r="AG64" s="6" t="s">
@@ -3441,12 +3441,12 @@
       <c r="AS64" s="16"/>
       <c r="AT64" s="16"/>
       <c r="AU64" s="17"/>
-      <c r="AV64" s="24" t="s">
+      <c r="AV64" s="48" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="51">
+      <c r="B65" s="36">
         <v>7</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -3478,7 +3478,7 @@
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="8"/>
-      <c r="AF65" s="4"/>
+      <c r="AF65" s="52"/>
       <c r="AG65" s="9"/>
       <c r="AH65" s="10"/>
       <c r="AI65" s="10"/>
@@ -3494,10 +3494,10 @@
       <c r="AS65" s="19"/>
       <c r="AT65" s="19"/>
       <c r="AU65" s="20"/>
-      <c r="AV65" s="25"/>
+      <c r="AV65" s="49"/>
     </row>
     <row r="66" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="52"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="9"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
@@ -3521,7 +3521,7 @@
       <c r="W66" s="10"/>
       <c r="X66" s="10"/>
       <c r="Y66" s="11"/>
-      <c r="AF66" s="5"/>
+      <c r="AF66" s="53"/>
       <c r="AG66" s="12"/>
       <c r="AH66" s="13"/>
       <c r="AI66" s="13"/>
@@ -3537,10 +3537,10 @@
       <c r="AS66" s="22"/>
       <c r="AT66" s="22"/>
       <c r="AU66" s="23"/>
-      <c r="AV66" s="26"/>
+      <c r="AV66" s="50"/>
     </row>
     <row r="67" spans="2:48" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="53"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="12"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -3564,7 +3564,7 @@
       <c r="W67" s="13"/>
       <c r="X67" s="13"/>
       <c r="Y67" s="14"/>
-      <c r="AF67" s="3" t="s">
+      <c r="AF67" s="51" t="s">
         <v>112</v>
       </c>
       <c r="AG67" s="6" t="s">
@@ -3586,12 +3586,12 @@
       <c r="AS67" s="16"/>
       <c r="AT67" s="16"/>
       <c r="AU67" s="17"/>
-      <c r="AV67" s="24" t="s">
+      <c r="AV67" s="48" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="51">
+      <c r="B68" s="36">
         <v>8</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -3623,7 +3623,7 @@
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
       <c r="Y68" s="8"/>
-      <c r="AF68" s="4"/>
+      <c r="AF68" s="52"/>
       <c r="AG68" s="9"/>
       <c r="AH68" s="10"/>
       <c r="AI68" s="10"/>
@@ -3639,10 +3639,10 @@
       <c r="AS68" s="19"/>
       <c r="AT68" s="19"/>
       <c r="AU68" s="20"/>
-      <c r="AV68" s="25"/>
+      <c r="AV68" s="49"/>
     </row>
     <row r="69" spans="2:48" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="52"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="9"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -3666,7 +3666,7 @@
       <c r="W69" s="10"/>
       <c r="X69" s="10"/>
       <c r="Y69" s="11"/>
-      <c r="AF69" s="5"/>
+      <c r="AF69" s="53"/>
       <c r="AG69" s="12"/>
       <c r="AH69" s="13"/>
       <c r="AI69" s="13"/>
@@ -3682,10 +3682,10 @@
       <c r="AS69" s="22"/>
       <c r="AT69" s="22"/>
       <c r="AU69" s="23"/>
-      <c r="AV69" s="26"/>
+      <c r="AV69" s="50"/>
     </row>
     <row r="70" spans="2:48" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="53"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="12"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -3709,7 +3709,7 @@
       <c r="W70" s="13"/>
       <c r="X70" s="13"/>
       <c r="Y70" s="14"/>
-      <c r="AF70" s="3" t="s">
+      <c r="AF70" s="51" t="s">
         <v>113</v>
       </c>
       <c r="AG70" s="6" t="s">
@@ -3731,12 +3731,12 @@
       <c r="AS70" s="16"/>
       <c r="AT70" s="16"/>
       <c r="AU70" s="17"/>
-      <c r="AV70" s="24" t="s">
+      <c r="AV70" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="71" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="51">
+      <c r="B71" s="36">
         <v>9</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -3768,7 +3768,7 @@
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
       <c r="Y71" s="8"/>
-      <c r="AF71" s="4"/>
+      <c r="AF71" s="52"/>
       <c r="AG71" s="9"/>
       <c r="AH71" s="10"/>
       <c r="AI71" s="10"/>
@@ -3784,10 +3784,10 @@
       <c r="AS71" s="19"/>
       <c r="AT71" s="19"/>
       <c r="AU71" s="20"/>
-      <c r="AV71" s="25"/>
+      <c r="AV71" s="49"/>
     </row>
     <row r="72" spans="2:48" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="52"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -3811,7 +3811,7 @@
       <c r="W72" s="10"/>
       <c r="X72" s="10"/>
       <c r="Y72" s="11"/>
-      <c r="AF72" s="5"/>
+      <c r="AF72" s="53"/>
       <c r="AG72" s="12"/>
       <c r="AH72" s="13"/>
       <c r="AI72" s="13"/>
@@ -3827,10 +3827,10 @@
       <c r="AS72" s="22"/>
       <c r="AT72" s="22"/>
       <c r="AU72" s="23"/>
-      <c r="AV72" s="26"/>
+      <c r="AV72" s="50"/>
     </row>
     <row r="73" spans="2:48" ht="110" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="53"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="12"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -3854,7 +3854,7 @@
       <c r="W73" s="13"/>
       <c r="X73" s="13"/>
       <c r="Y73" s="14"/>
-      <c r="AF73" s="3">
+      <c r="AF73" s="51">
         <v>5</v>
       </c>
       <c r="AG73" s="6" t="s">
@@ -3876,12 +3876,12 @@
       <c r="AS73" s="16"/>
       <c r="AT73" s="16"/>
       <c r="AU73" s="17"/>
-      <c r="AV73" s="24" t="s">
+      <c r="AV73" s="48" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="74" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="51">
+      <c r="B74" s="36">
         <v>10</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -3913,7 +3913,7 @@
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="8"/>
-      <c r="AF74" s="4"/>
+      <c r="AF74" s="52"/>
       <c r="AG74" s="9"/>
       <c r="AH74" s="10"/>
       <c r="AI74" s="10"/>
@@ -3929,10 +3929,10 @@
       <c r="AS74" s="19"/>
       <c r="AT74" s="19"/>
       <c r="AU74" s="20"/>
-      <c r="AV74" s="25"/>
+      <c r="AV74" s="49"/>
     </row>
     <row r="75" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="52"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="9"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -3956,7 +3956,7 @@
       <c r="W75" s="10"/>
       <c r="X75" s="10"/>
       <c r="Y75" s="11"/>
-      <c r="AF75" s="5"/>
+      <c r="AF75" s="53"/>
       <c r="AG75" s="12"/>
       <c r="AH75" s="13"/>
       <c r="AI75" s="13"/>
@@ -3972,10 +3972,10 @@
       <c r="AS75" s="22"/>
       <c r="AT75" s="22"/>
       <c r="AU75" s="23"/>
-      <c r="AV75" s="26"/>
+      <c r="AV75" s="50"/>
     </row>
     <row r="76" spans="2:48" ht="104" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="53"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -3999,7 +3999,7 @@
       <c r="W76" s="13"/>
       <c r="X76" s="13"/>
       <c r="Y76" s="14"/>
-      <c r="AF76" s="3">
+      <c r="AF76" s="51">
         <v>7</v>
       </c>
       <c r="AG76" s="6" t="s">
@@ -4021,12 +4021,12 @@
       <c r="AS76" s="16"/>
       <c r="AT76" s="16"/>
       <c r="AU76" s="17"/>
-      <c r="AV76" s="24" t="s">
+      <c r="AV76" s="48" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="77" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="51">
+      <c r="B77" s="36">
         <v>11</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -4058,7 +4058,7 @@
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="8"/>
-      <c r="AF77" s="4"/>
+      <c r="AF77" s="52"/>
       <c r="AG77" s="9"/>
       <c r="AH77" s="10"/>
       <c r="AI77" s="10"/>
@@ -4074,10 +4074,10 @@
       <c r="AS77" s="19"/>
       <c r="AT77" s="19"/>
       <c r="AU77" s="20"/>
-      <c r="AV77" s="25"/>
+      <c r="AV77" s="49"/>
     </row>
     <row r="78" spans="2:48" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="52"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="9"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -4101,7 +4101,7 @@
       <c r="W78" s="10"/>
       <c r="X78" s="10"/>
       <c r="Y78" s="11"/>
-      <c r="AF78" s="5"/>
+      <c r="AF78" s="53"/>
       <c r="AG78" s="12"/>
       <c r="AH78" s="13"/>
       <c r="AI78" s="13"/>
@@ -4117,10 +4117,10 @@
       <c r="AS78" s="22"/>
       <c r="AT78" s="22"/>
       <c r="AU78" s="23"/>
-      <c r="AV78" s="26"/>
+      <c r="AV78" s="50"/>
     </row>
     <row r="79" spans="2:48" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="53"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="12"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -4144,7 +4144,7 @@
       <c r="W79" s="13"/>
       <c r="X79" s="13"/>
       <c r="Y79" s="14"/>
-      <c r="AF79" s="3">
+      <c r="AF79" s="51">
         <v>6</v>
       </c>
       <c r="AG79" s="6" t="s">
@@ -4166,12 +4166,12 @@
       <c r="AS79" s="16"/>
       <c r="AT79" s="16"/>
       <c r="AU79" s="17"/>
-      <c r="AV79" s="24" t="s">
+      <c r="AV79" s="48" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="80" spans="2:48" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="51">
+      <c r="B80" s="36">
         <v>12</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -4203,7 +4203,7 @@
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
       <c r="Y80" s="8"/>
-      <c r="AF80" s="4"/>
+      <c r="AF80" s="52"/>
       <c r="AG80" s="9"/>
       <c r="AH80" s="10"/>
       <c r="AI80" s="10"/>
@@ -4219,10 +4219,10 @@
       <c r="AS80" s="19"/>
       <c r="AT80" s="19"/>
       <c r="AU80" s="20"/>
-      <c r="AV80" s="25"/>
+      <c r="AV80" s="49"/>
     </row>
     <row r="81" spans="2:48" ht="1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="52"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="9"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
@@ -4246,7 +4246,7 @@
       <c r="W81" s="10"/>
       <c r="X81" s="10"/>
       <c r="Y81" s="11"/>
-      <c r="AF81" s="5"/>
+      <c r="AF81" s="53"/>
       <c r="AG81" s="12"/>
       <c r="AH81" s="13"/>
       <c r="AI81" s="13"/>
@@ -4262,10 +4262,10 @@
       <c r="AS81" s="22"/>
       <c r="AT81" s="22"/>
       <c r="AU81" s="23"/>
-      <c r="AV81" s="26"/>
+      <c r="AV81" s="50"/>
     </row>
     <row r="82" spans="2:48" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="53"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="12"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -4289,7 +4289,7 @@
       <c r="W82" s="13"/>
       <c r="X82" s="13"/>
       <c r="Y82" s="14"/>
-      <c r="AF82" s="3">
+      <c r="AF82" s="51">
         <v>8</v>
       </c>
       <c r="AG82" s="6" t="s">
@@ -4311,12 +4311,12 @@
       <c r="AS82" s="16"/>
       <c r="AT82" s="16"/>
       <c r="AU82" s="17"/>
-      <c r="AV82" s="24" t="s">
+      <c r="AV82" s="48" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AF83" s="4"/>
+      <c r="AF83" s="52"/>
       <c r="AG83" s="9"/>
       <c r="AH83" s="10"/>
       <c r="AI83" s="10"/>
@@ -4332,10 +4332,10 @@
       <c r="AS83" s="19"/>
       <c r="AT83" s="19"/>
       <c r="AU83" s="20"/>
-      <c r="AV83" s="25"/>
+      <c r="AV83" s="49"/>
     </row>
     <row r="84" spans="2:48" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF84" s="5"/>
+      <c r="AF84" s="53"/>
       <c r="AG84" s="12"/>
       <c r="AH84" s="13"/>
       <c r="AI84" s="13"/>
@@ -4351,7 +4351,7 @@
       <c r="AS84" s="22"/>
       <c r="AT84" s="22"/>
       <c r="AU84" s="23"/>
-      <c r="AV84" s="26"/>
+      <c r="AV84" s="50"/>
     </row>
     <row r="85" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
@@ -4372,7 +4372,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="AF85" s="3" t="s">
+      <c r="AF85" s="51" t="s">
         <v>114</v>
       </c>
       <c r="AG85" s="6" t="s">
@@ -4394,44 +4394,44 @@
       <c r="AS85" s="16"/>
       <c r="AT85" s="16"/>
       <c r="AU85" s="17"/>
-      <c r="AV85" s="24" t="s">
+      <c r="AV85" s="48" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="86" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="30" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K86" s="31"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="31"/>
-      <c r="P86" s="31"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="30" t="s">
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S86" s="31"/>
-      <c r="T86" s="31"/>
-      <c r="U86" s="31"/>
-      <c r="V86" s="31"/>
-      <c r="W86" s="31"/>
-      <c r="X86" s="31"/>
-      <c r="Y86" s="32"/>
-      <c r="AF86" s="4"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="28"/>
+      <c r="U86" s="28"/>
+      <c r="V86" s="28"/>
+      <c r="W86" s="28"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="29"/>
+      <c r="AF86" s="52"/>
       <c r="AG86" s="9"/>
       <c r="AH86" s="10"/>
       <c r="AI86" s="10"/>
@@ -4447,34 +4447,34 @@
       <c r="AS86" s="19"/>
       <c r="AT86" s="19"/>
       <c r="AU86" s="20"/>
-      <c r="AV86" s="25"/>
+      <c r="AV86" s="49"/>
     </row>
     <row r="87" spans="2:48" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="28"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="33"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="34"/>
-      <c r="U87" s="34"/>
-      <c r="V87" s="34"/>
-      <c r="W87" s="34"/>
-      <c r="X87" s="34"/>
-      <c r="Y87" s="35"/>
-      <c r="AF87" s="5"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="30"/>
+      <c r="S87" s="31"/>
+      <c r="T87" s="31"/>
+      <c r="U87" s="31"/>
+      <c r="V87" s="31"/>
+      <c r="W87" s="31"/>
+      <c r="X87" s="31"/>
+      <c r="Y87" s="32"/>
+      <c r="AF87" s="53"/>
       <c r="AG87" s="12"/>
       <c r="AH87" s="13"/>
       <c r="AI87" s="13"/>
@@ -4490,34 +4490,34 @@
       <c r="AS87" s="22"/>
       <c r="AT87" s="22"/>
       <c r="AU87" s="23"/>
-      <c r="AV87" s="26"/>
+      <c r="AV87" s="50"/>
     </row>
     <row r="88" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="29"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="38"/>
-      <c r="AF88" s="3">
+      <c r="B88" s="26"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="33"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="34"/>
+      <c r="U88" s="34"/>
+      <c r="V88" s="34"/>
+      <c r="W88" s="34"/>
+      <c r="X88" s="34"/>
+      <c r="Y88" s="35"/>
+      <c r="AF88" s="51">
         <v>12</v>
       </c>
       <c r="AG88" s="6" t="s">
@@ -4539,12 +4539,12 @@
       <c r="AS88" s="16"/>
       <c r="AT88" s="16"/>
       <c r="AU88" s="17"/>
-      <c r="AV88" s="24" t="s">
+      <c r="AV88" s="48" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="89" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="48">
+      <c r="B89" s="3">
         <v>1</v>
       </c>
       <c r="C89" s="6" t="s">
@@ -4576,7 +4576,7 @@
       <c r="W89" s="7"/>
       <c r="X89" s="7"/>
       <c r="Y89" s="8"/>
-      <c r="AF89" s="4"/>
+      <c r="AF89" s="52"/>
       <c r="AG89" s="9"/>
       <c r="AH89" s="10"/>
       <c r="AI89" s="10"/>
@@ -4592,10 +4592,10 @@
       <c r="AS89" s="19"/>
       <c r="AT89" s="19"/>
       <c r="AU89" s="20"/>
-      <c r="AV89" s="25"/>
+      <c r="AV89" s="49"/>
     </row>
     <row r="90" spans="2:48" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="49"/>
+      <c r="B90" s="4"/>
       <c r="C90" s="9"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
@@ -4619,7 +4619,7 @@
       <c r="W90" s="10"/>
       <c r="X90" s="10"/>
       <c r="Y90" s="11"/>
-      <c r="AF90" s="5"/>
+      <c r="AF90" s="53"/>
       <c r="AG90" s="12"/>
       <c r="AH90" s="13"/>
       <c r="AI90" s="13"/>
@@ -4635,10 +4635,10 @@
       <c r="AS90" s="22"/>
       <c r="AT90" s="22"/>
       <c r="AU90" s="23"/>
-      <c r="AV90" s="26"/>
+      <c r="AV90" s="50"/>
     </row>
     <row r="91" spans="2:48" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="50"/>
+      <c r="B91" s="5"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -4662,7 +4662,7 @@
       <c r="W91" s="13"/>
       <c r="X91" s="13"/>
       <c r="Y91" s="14"/>
-      <c r="AF91" s="3">
+      <c r="AF91" s="51">
         <v>11</v>
       </c>
       <c r="AG91" s="6" t="s">
@@ -4684,12 +4684,12 @@
       <c r="AS91" s="16"/>
       <c r="AT91" s="16"/>
       <c r="AU91" s="17"/>
-      <c r="AV91" s="24" t="s">
+      <c r="AV91" s="48" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="92" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="48">
+      <c r="B92" s="3">
         <v>2</v>
       </c>
       <c r="C92" s="6" t="s">
@@ -4721,7 +4721,7 @@
       <c r="W92" s="7"/>
       <c r="X92" s="7"/>
       <c r="Y92" s="8"/>
-      <c r="AF92" s="4"/>
+      <c r="AF92" s="52"/>
       <c r="AG92" s="9"/>
       <c r="AH92" s="10"/>
       <c r="AI92" s="10"/>
@@ -4737,10 +4737,10 @@
       <c r="AS92" s="19"/>
       <c r="AT92" s="19"/>
       <c r="AU92" s="20"/>
-      <c r="AV92" s="25"/>
+      <c r="AV92" s="49"/>
     </row>
     <row r="93" spans="2:48" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="49"/>
+      <c r="B93" s="4"/>
       <c r="C93" s="9"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -4764,7 +4764,7 @@
       <c r="W93" s="10"/>
       <c r="X93" s="10"/>
       <c r="Y93" s="11"/>
-      <c r="AF93" s="5"/>
+      <c r="AF93" s="53"/>
       <c r="AG93" s="12"/>
       <c r="AH93" s="13"/>
       <c r="AI93" s="13"/>
@@ -4780,10 +4780,10 @@
       <c r="AS93" s="22"/>
       <c r="AT93" s="22"/>
       <c r="AU93" s="23"/>
-      <c r="AV93" s="26"/>
+      <c r="AV93" s="50"/>
     </row>
     <row r="94" spans="2:48" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="50"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="12"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -4807,7 +4807,7 @@
       <c r="W94" s="13"/>
       <c r="X94" s="13"/>
       <c r="Y94" s="14"/>
-      <c r="AF94" s="3">
+      <c r="AF94" s="51">
         <v>12</v>
       </c>
       <c r="AG94" s="6" t="s">
@@ -4829,12 +4829,12 @@
       <c r="AS94" s="16"/>
       <c r="AT94" s="16"/>
       <c r="AU94" s="17"/>
-      <c r="AV94" s="24" t="s">
+      <c r="AV94" s="48" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="95" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="48">
+      <c r="B95" s="3">
         <v>3</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -4866,7 +4866,7 @@
       <c r="W95" s="7"/>
       <c r="X95" s="7"/>
       <c r="Y95" s="8"/>
-      <c r="AF95" s="4"/>
+      <c r="AF95" s="52"/>
       <c r="AG95" s="9"/>
       <c r="AH95" s="10"/>
       <c r="AI95" s="10"/>
@@ -4882,10 +4882,10 @@
       <c r="AS95" s="19"/>
       <c r="AT95" s="19"/>
       <c r="AU95" s="20"/>
-      <c r="AV95" s="25"/>
+      <c r="AV95" s="49"/>
     </row>
     <row r="96" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="49"/>
+      <c r="B96" s="4"/>
       <c r="C96" s="9"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
@@ -4909,7 +4909,7 @@
       <c r="W96" s="10"/>
       <c r="X96" s="10"/>
       <c r="Y96" s="11"/>
-      <c r="AF96" s="5"/>
+      <c r="AF96" s="53"/>
       <c r="AG96" s="12"/>
       <c r="AH96" s="13"/>
       <c r="AI96" s="13"/>
@@ -4925,10 +4925,10 @@
       <c r="AS96" s="22"/>
       <c r="AT96" s="22"/>
       <c r="AU96" s="23"/>
-      <c r="AV96" s="26"/>
+      <c r="AV96" s="50"/>
     </row>
     <row r="97" spans="2:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="50"/>
+      <c r="B97" s="5"/>
       <c r="C97" s="12"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -4954,7 +4954,7 @@
       <c r="Y97" s="14"/>
     </row>
     <row r="98" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="48">
+      <c r="B98" s="3">
         <v>4</v>
       </c>
       <c r="C98" s="6" t="s">
@@ -4988,7 +4988,7 @@
       <c r="Y98" s="8"/>
     </row>
     <row r="99" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="49"/>
+      <c r="B99" s="4"/>
       <c r="C99" s="9"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
@@ -5014,7 +5014,7 @@
       <c r="Y99" s="11"/>
     </row>
     <row r="100" spans="2:25" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="50"/>
+      <c r="B100" s="5"/>
       <c r="C100" s="12"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
@@ -5040,7 +5040,7 @@
       <c r="Y100" s="14"/>
     </row>
     <row r="101" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="48">
+      <c r="B101" s="3">
         <v>5</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -5074,7 +5074,7 @@
       <c r="Y101" s="8"/>
     </row>
     <row r="102" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="49"/>
+      <c r="B102" s="4"/>
       <c r="C102" s="9"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -5100,7 +5100,7 @@
       <c r="Y102" s="11"/>
     </row>
     <row r="103" spans="2:25" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="50"/>
+      <c r="B103" s="5"/>
       <c r="C103" s="12"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -5126,7 +5126,7 @@
       <c r="Y103" s="14"/>
     </row>
     <row r="104" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="48">
+      <c r="B104" s="3">
         <v>6</v>
       </c>
       <c r="C104" s="6" t="s">
@@ -5160,7 +5160,7 @@
       <c r="Y104" s="8"/>
     </row>
     <row r="105" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="49"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="9"/>
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
@@ -5186,7 +5186,7 @@
       <c r="Y105" s="11"/>
     </row>
     <row r="106" spans="2:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="50"/>
+      <c r="B106" s="5"/>
       <c r="C106" s="12"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
@@ -5212,7 +5212,7 @@
       <c r="Y106" s="14"/>
     </row>
     <row r="107" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="48">
+      <c r="B107" s="3">
         <v>7</v>
       </c>
       <c r="C107" s="6" t="s">
@@ -5246,7 +5246,7 @@
       <c r="Y107" s="8"/>
     </row>
     <row r="108" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="49"/>
+      <c r="B108" s="4"/>
       <c r="C108" s="9"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
@@ -5272,7 +5272,7 @@
       <c r="Y108" s="11"/>
     </row>
     <row r="109" spans="2:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="50"/>
+      <c r="B109" s="5"/>
       <c r="C109" s="12"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
@@ -5298,7 +5298,7 @@
       <c r="Y109" s="14"/>
     </row>
     <row r="110" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="48">
+      <c r="B110" s="3">
         <v>8</v>
       </c>
       <c r="C110" s="6" t="s">
@@ -5332,7 +5332,7 @@
       <c r="Y110" s="8"/>
     </row>
     <row r="111" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="49"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="9"/>
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
@@ -5358,7 +5358,7 @@
       <c r="Y111" s="11"/>
     </row>
     <row r="112" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="50"/>
+      <c r="B112" s="5"/>
       <c r="C112" s="12"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -5384,7 +5384,7 @@
       <c r="Y112" s="14"/>
     </row>
     <row r="113" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="48">
+      <c r="B113" s="3">
         <v>9</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -5418,7 +5418,7 @@
       <c r="Y113" s="8"/>
     </row>
     <row r="114" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="49"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="9"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
@@ -5444,7 +5444,7 @@
       <c r="Y114" s="11"/>
     </row>
     <row r="115" spans="2:25" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="50"/>
+      <c r="B115" s="5"/>
       <c r="C115" s="12"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
@@ -5470,7 +5470,7 @@
       <c r="Y115" s="14"/>
     </row>
     <row r="116" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="48">
+      <c r="B116" s="3">
         <v>10</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -5504,7 +5504,7 @@
       <c r="Y116" s="8"/>
     </row>
     <row r="117" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="49"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="9"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
@@ -5530,7 +5530,7 @@
       <c r="Y117" s="11"/>
     </row>
     <row r="118" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="50"/>
+      <c r="B118" s="5"/>
       <c r="C118" s="12"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
@@ -5556,7 +5556,7 @@
       <c r="Y118" s="14"/>
     </row>
     <row r="119" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="48">
+      <c r="B119" s="3">
         <v>11</v>
       </c>
       <c r="C119" s="6" t="s">
@@ -5590,7 +5590,7 @@
       <c r="Y119" s="8"/>
     </row>
     <row r="120" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="49"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="9"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
@@ -5616,7 +5616,7 @@
       <c r="Y120" s="11"/>
     </row>
     <row r="121" spans="2:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="50"/>
+      <c r="B121" s="5"/>
       <c r="C121" s="12"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
@@ -5642,7 +5642,7 @@
       <c r="Y121" s="14"/>
     </row>
     <row r="122" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="48">
+      <c r="B122" s="3">
         <v>12</v>
       </c>
       <c r="C122" s="6" t="s">
@@ -5676,7 +5676,7 @@
       <c r="Y122" s="8"/>
     </row>
     <row r="123" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="49"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="9"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
@@ -5702,7 +5702,7 @@
       <c r="Y123" s="11"/>
     </row>
     <row r="124" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="50"/>
+      <c r="B124" s="5"/>
       <c r="C124" s="12"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
@@ -5729,39 +5729,209 @@
     </row>
   </sheetData>
   <mergeCells count="260">
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="C122:I124"/>
-    <mergeCell ref="J122:Q124"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:I118"/>
-    <mergeCell ref="J116:Q118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:I121"/>
-    <mergeCell ref="J119:Q121"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:I112"/>
-    <mergeCell ref="J110:Q112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:I115"/>
-    <mergeCell ref="J113:Q115"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:I106"/>
-    <mergeCell ref="J104:Q106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:I109"/>
-    <mergeCell ref="J107:Q109"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:I100"/>
-    <mergeCell ref="J98:Q100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:I103"/>
-    <mergeCell ref="J101:Q103"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:I94"/>
-    <mergeCell ref="J92:Q94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:I97"/>
-    <mergeCell ref="J95:Q97"/>
+    <mergeCell ref="AF91:AF93"/>
+    <mergeCell ref="AG91:AM93"/>
+    <mergeCell ref="AN91:AU93"/>
+    <mergeCell ref="AV91:AV93"/>
+    <mergeCell ref="AF94:AF96"/>
+    <mergeCell ref="AG94:AM96"/>
+    <mergeCell ref="AN94:AU96"/>
+    <mergeCell ref="AV94:AV96"/>
+    <mergeCell ref="AF82:AF84"/>
+    <mergeCell ref="AG82:AM84"/>
+    <mergeCell ref="AN82:AU84"/>
+    <mergeCell ref="AV82:AV84"/>
+    <mergeCell ref="AF85:AF87"/>
+    <mergeCell ref="AG85:AM87"/>
+    <mergeCell ref="AN85:AU87"/>
+    <mergeCell ref="AV85:AV87"/>
+    <mergeCell ref="AF88:AF90"/>
+    <mergeCell ref="AG88:AM90"/>
+    <mergeCell ref="AN88:AU90"/>
+    <mergeCell ref="AV88:AV90"/>
+    <mergeCell ref="AF73:AF75"/>
+    <mergeCell ref="AG73:AM75"/>
+    <mergeCell ref="AN73:AU75"/>
+    <mergeCell ref="AV73:AV75"/>
+    <mergeCell ref="AF76:AF78"/>
+    <mergeCell ref="AG76:AM78"/>
+    <mergeCell ref="AN76:AU78"/>
+    <mergeCell ref="AV76:AV78"/>
+    <mergeCell ref="AF79:AF81"/>
+    <mergeCell ref="AG79:AM81"/>
+    <mergeCell ref="AN79:AU81"/>
+    <mergeCell ref="AV79:AV81"/>
+    <mergeCell ref="AF64:AF66"/>
+    <mergeCell ref="AG64:AM66"/>
+    <mergeCell ref="AN64:AU66"/>
+    <mergeCell ref="AV64:AV66"/>
+    <mergeCell ref="AF67:AF69"/>
+    <mergeCell ref="AG67:AM69"/>
+    <mergeCell ref="AN67:AU69"/>
+    <mergeCell ref="AV67:AV69"/>
+    <mergeCell ref="AF70:AF72"/>
+    <mergeCell ref="AG70:AM72"/>
+    <mergeCell ref="AN70:AU72"/>
+    <mergeCell ref="AV70:AV72"/>
+    <mergeCell ref="AF51:AF53"/>
+    <mergeCell ref="AG51:AM53"/>
+    <mergeCell ref="AN51:AU53"/>
+    <mergeCell ref="AV51:AV53"/>
+    <mergeCell ref="AF58:AF60"/>
+    <mergeCell ref="AG58:AM60"/>
+    <mergeCell ref="AN58:AU60"/>
+    <mergeCell ref="AV58:AV60"/>
+    <mergeCell ref="AF61:AF63"/>
+    <mergeCell ref="AG61:AM63"/>
+    <mergeCell ref="AN61:AU63"/>
+    <mergeCell ref="AV61:AV63"/>
+    <mergeCell ref="AF42:AF44"/>
+    <mergeCell ref="AG42:AM44"/>
+    <mergeCell ref="AN42:AU44"/>
+    <mergeCell ref="AV42:AV44"/>
+    <mergeCell ref="AF45:AF47"/>
+    <mergeCell ref="AG45:AM47"/>
+    <mergeCell ref="AN45:AU47"/>
+    <mergeCell ref="AV45:AV47"/>
+    <mergeCell ref="AF48:AF50"/>
+    <mergeCell ref="AG48:AM50"/>
+    <mergeCell ref="AN48:AU50"/>
+    <mergeCell ref="AV48:AV50"/>
+    <mergeCell ref="AN33:AU35"/>
+    <mergeCell ref="AV33:AV35"/>
+    <mergeCell ref="AF36:AF38"/>
+    <mergeCell ref="AG36:AM38"/>
+    <mergeCell ref="AN36:AU38"/>
+    <mergeCell ref="AV36:AV38"/>
+    <mergeCell ref="AF39:AF41"/>
+    <mergeCell ref="AG39:AM41"/>
+    <mergeCell ref="AN39:AU41"/>
+    <mergeCell ref="AV39:AV41"/>
+    <mergeCell ref="AF33:AF35"/>
+    <mergeCell ref="AG33:AM35"/>
+    <mergeCell ref="AN24:AU26"/>
+    <mergeCell ref="AV24:AV26"/>
+    <mergeCell ref="AF27:AF29"/>
+    <mergeCell ref="AG27:AM29"/>
+    <mergeCell ref="AN27:AU29"/>
+    <mergeCell ref="AV27:AV29"/>
+    <mergeCell ref="AF30:AF32"/>
+    <mergeCell ref="AG30:AM32"/>
+    <mergeCell ref="AN30:AU32"/>
+    <mergeCell ref="AV30:AV32"/>
+    <mergeCell ref="AF24:AF26"/>
+    <mergeCell ref="AG24:AM26"/>
+    <mergeCell ref="AV15:AV17"/>
+    <mergeCell ref="AF18:AF20"/>
+    <mergeCell ref="AG18:AM20"/>
+    <mergeCell ref="AN18:AU20"/>
+    <mergeCell ref="AV18:AV20"/>
+    <mergeCell ref="AF21:AF23"/>
+    <mergeCell ref="AG21:AM23"/>
+    <mergeCell ref="AN21:AU23"/>
+    <mergeCell ref="AV21:AV23"/>
+    <mergeCell ref="AF15:AF17"/>
+    <mergeCell ref="AG15:AM17"/>
+    <mergeCell ref="AN15:AU17"/>
+    <mergeCell ref="R101:Y103"/>
+    <mergeCell ref="R104:Y106"/>
+    <mergeCell ref="R107:Y109"/>
+    <mergeCell ref="R110:Y112"/>
+    <mergeCell ref="R113:Y115"/>
+    <mergeCell ref="R116:Y118"/>
+    <mergeCell ref="R119:Y121"/>
+    <mergeCell ref="R122:Y124"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="R26:R28"/>
+    <mergeCell ref="R29:R31"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="R38:R40"/>
+    <mergeCell ref="R71:Y73"/>
+    <mergeCell ref="R74:Y76"/>
+    <mergeCell ref="R77:Y79"/>
+    <mergeCell ref="R92:Y94"/>
+    <mergeCell ref="R95:Y97"/>
+    <mergeCell ref="R98:Y100"/>
+    <mergeCell ref="R44:Y46"/>
+    <mergeCell ref="R47:Y49"/>
+    <mergeCell ref="R50:Y52"/>
+    <mergeCell ref="R53:Y55"/>
+    <mergeCell ref="R56:Y58"/>
+    <mergeCell ref="R59:Y61"/>
+    <mergeCell ref="R62:Y64"/>
+    <mergeCell ref="R65:Y67"/>
+    <mergeCell ref="R68:Y70"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:I16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:I19"/>
+    <mergeCell ref="J14:Q16"/>
+    <mergeCell ref="J17:Q19"/>
+    <mergeCell ref="R80:Y82"/>
+    <mergeCell ref="R86:Y88"/>
+    <mergeCell ref="R89:Y91"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:I22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:I37"/>
+    <mergeCell ref="J35:Q37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:I40"/>
+    <mergeCell ref="J38:Q40"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:I31"/>
+    <mergeCell ref="J29:Q31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:I34"/>
+    <mergeCell ref="J32:Q34"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:I7"/>
+    <mergeCell ref="J2:Q4"/>
+    <mergeCell ref="J5:Q7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:I10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:I13"/>
+    <mergeCell ref="J8:Q10"/>
+    <mergeCell ref="J11:Q13"/>
+    <mergeCell ref="C23:I25"/>
+    <mergeCell ref="J20:Q22"/>
+    <mergeCell ref="J23:Q25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:I28"/>
+    <mergeCell ref="J26:Q28"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:I49"/>
+    <mergeCell ref="J47:Q49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:I52"/>
+    <mergeCell ref="J50:Q52"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:I46"/>
+    <mergeCell ref="J44:Q46"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:I64"/>
+    <mergeCell ref="J62:Q64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:I67"/>
+    <mergeCell ref="J65:Q67"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:I58"/>
+    <mergeCell ref="J56:Q58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:I61"/>
+    <mergeCell ref="J59:Q61"/>
     <mergeCell ref="B86:B88"/>
     <mergeCell ref="C86:I88"/>
     <mergeCell ref="J86:Q88"/>
@@ -5786,209 +5956,39 @@
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="C71:I73"/>
     <mergeCell ref="J71:Q73"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:I67"/>
-    <mergeCell ref="J65:Q67"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:I58"/>
-    <mergeCell ref="J56:Q58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:I61"/>
-    <mergeCell ref="J59:Q61"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:I52"/>
-    <mergeCell ref="J50:Q52"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:I46"/>
-    <mergeCell ref="J44:Q46"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:I64"/>
-    <mergeCell ref="J62:Q64"/>
-    <mergeCell ref="C23:I25"/>
-    <mergeCell ref="J20:Q22"/>
-    <mergeCell ref="J23:Q25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:I28"/>
-    <mergeCell ref="J26:Q28"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:I49"/>
-    <mergeCell ref="J47:Q49"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:I7"/>
-    <mergeCell ref="J2:Q4"/>
-    <mergeCell ref="J5:Q7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:I10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:I13"/>
-    <mergeCell ref="J8:Q10"/>
-    <mergeCell ref="J11:Q13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:I16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:I19"/>
-    <mergeCell ref="J14:Q16"/>
-    <mergeCell ref="J17:Q19"/>
-    <mergeCell ref="R80:Y82"/>
-    <mergeCell ref="R86:Y88"/>
-    <mergeCell ref="R89:Y91"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:I22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:I37"/>
-    <mergeCell ref="J35:Q37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:I40"/>
-    <mergeCell ref="J38:Q40"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:I31"/>
-    <mergeCell ref="J29:Q31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:I34"/>
-    <mergeCell ref="J32:Q34"/>
-    <mergeCell ref="R92:Y94"/>
-    <mergeCell ref="R95:Y97"/>
-    <mergeCell ref="R98:Y100"/>
-    <mergeCell ref="R44:Y46"/>
-    <mergeCell ref="R47:Y49"/>
-    <mergeCell ref="R50:Y52"/>
-    <mergeCell ref="R53:Y55"/>
-    <mergeCell ref="R56:Y58"/>
-    <mergeCell ref="R59:Y61"/>
-    <mergeCell ref="R62:Y64"/>
-    <mergeCell ref="R65:Y67"/>
-    <mergeCell ref="R68:Y70"/>
-    <mergeCell ref="R101:Y103"/>
-    <mergeCell ref="R104:Y106"/>
-    <mergeCell ref="R107:Y109"/>
-    <mergeCell ref="R110:Y112"/>
-    <mergeCell ref="R113:Y115"/>
-    <mergeCell ref="R116:Y118"/>
-    <mergeCell ref="R119:Y121"/>
-    <mergeCell ref="R122:Y124"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="R26:R28"/>
-    <mergeCell ref="R29:R31"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="R35:R37"/>
-    <mergeCell ref="R38:R40"/>
-    <mergeCell ref="R71:Y73"/>
-    <mergeCell ref="R74:Y76"/>
-    <mergeCell ref="R77:Y79"/>
-    <mergeCell ref="AV15:AV17"/>
-    <mergeCell ref="AF18:AF20"/>
-    <mergeCell ref="AG18:AM20"/>
-    <mergeCell ref="AN18:AU20"/>
-    <mergeCell ref="AV18:AV20"/>
-    <mergeCell ref="AF21:AF23"/>
-    <mergeCell ref="AG21:AM23"/>
-    <mergeCell ref="AN21:AU23"/>
-    <mergeCell ref="AV21:AV23"/>
-    <mergeCell ref="AF15:AF17"/>
-    <mergeCell ref="AG15:AM17"/>
-    <mergeCell ref="AN15:AU17"/>
-    <mergeCell ref="AN24:AU26"/>
-    <mergeCell ref="AV24:AV26"/>
-    <mergeCell ref="AF27:AF29"/>
-    <mergeCell ref="AG27:AM29"/>
-    <mergeCell ref="AN27:AU29"/>
-    <mergeCell ref="AV27:AV29"/>
-    <mergeCell ref="AF30:AF32"/>
-    <mergeCell ref="AG30:AM32"/>
-    <mergeCell ref="AN30:AU32"/>
-    <mergeCell ref="AV30:AV32"/>
-    <mergeCell ref="AF24:AF26"/>
-    <mergeCell ref="AG24:AM26"/>
-    <mergeCell ref="AN33:AU35"/>
-    <mergeCell ref="AV33:AV35"/>
-    <mergeCell ref="AF36:AF38"/>
-    <mergeCell ref="AG36:AM38"/>
-    <mergeCell ref="AN36:AU38"/>
-    <mergeCell ref="AV36:AV38"/>
-    <mergeCell ref="AF39:AF41"/>
-    <mergeCell ref="AG39:AM41"/>
-    <mergeCell ref="AN39:AU41"/>
-    <mergeCell ref="AV39:AV41"/>
-    <mergeCell ref="AF33:AF35"/>
-    <mergeCell ref="AG33:AM35"/>
-    <mergeCell ref="AF42:AF44"/>
-    <mergeCell ref="AG42:AM44"/>
-    <mergeCell ref="AN42:AU44"/>
-    <mergeCell ref="AV42:AV44"/>
-    <mergeCell ref="AF45:AF47"/>
-    <mergeCell ref="AG45:AM47"/>
-    <mergeCell ref="AN45:AU47"/>
-    <mergeCell ref="AV45:AV47"/>
-    <mergeCell ref="AF48:AF50"/>
-    <mergeCell ref="AG48:AM50"/>
-    <mergeCell ref="AN48:AU50"/>
-    <mergeCell ref="AV48:AV50"/>
-    <mergeCell ref="AF51:AF53"/>
-    <mergeCell ref="AG51:AM53"/>
-    <mergeCell ref="AN51:AU53"/>
-    <mergeCell ref="AV51:AV53"/>
-    <mergeCell ref="AF58:AF60"/>
-    <mergeCell ref="AG58:AM60"/>
-    <mergeCell ref="AN58:AU60"/>
-    <mergeCell ref="AV58:AV60"/>
-    <mergeCell ref="AF61:AF63"/>
-    <mergeCell ref="AG61:AM63"/>
-    <mergeCell ref="AN61:AU63"/>
-    <mergeCell ref="AV61:AV63"/>
-    <mergeCell ref="AF64:AF66"/>
-    <mergeCell ref="AG64:AM66"/>
-    <mergeCell ref="AN64:AU66"/>
-    <mergeCell ref="AV64:AV66"/>
-    <mergeCell ref="AF67:AF69"/>
-    <mergeCell ref="AG67:AM69"/>
-    <mergeCell ref="AN67:AU69"/>
-    <mergeCell ref="AV67:AV69"/>
-    <mergeCell ref="AF70:AF72"/>
-    <mergeCell ref="AG70:AM72"/>
-    <mergeCell ref="AN70:AU72"/>
-    <mergeCell ref="AV70:AV72"/>
-    <mergeCell ref="AF73:AF75"/>
-    <mergeCell ref="AG73:AM75"/>
-    <mergeCell ref="AN73:AU75"/>
-    <mergeCell ref="AV73:AV75"/>
-    <mergeCell ref="AF76:AF78"/>
-    <mergeCell ref="AG76:AM78"/>
-    <mergeCell ref="AN76:AU78"/>
-    <mergeCell ref="AV76:AV78"/>
-    <mergeCell ref="AF79:AF81"/>
-    <mergeCell ref="AG79:AM81"/>
-    <mergeCell ref="AN79:AU81"/>
-    <mergeCell ref="AV79:AV81"/>
-    <mergeCell ref="AF91:AF93"/>
-    <mergeCell ref="AG91:AM93"/>
-    <mergeCell ref="AN91:AU93"/>
-    <mergeCell ref="AV91:AV93"/>
-    <mergeCell ref="AF94:AF96"/>
-    <mergeCell ref="AG94:AM96"/>
-    <mergeCell ref="AN94:AU96"/>
-    <mergeCell ref="AV94:AV96"/>
-    <mergeCell ref="AF82:AF84"/>
-    <mergeCell ref="AG82:AM84"/>
-    <mergeCell ref="AN82:AU84"/>
-    <mergeCell ref="AV82:AV84"/>
-    <mergeCell ref="AF85:AF87"/>
-    <mergeCell ref="AG85:AM87"/>
-    <mergeCell ref="AN85:AU87"/>
-    <mergeCell ref="AV85:AV87"/>
-    <mergeCell ref="AF88:AF90"/>
-    <mergeCell ref="AG88:AM90"/>
-    <mergeCell ref="AN88:AU90"/>
-    <mergeCell ref="AV88:AV90"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:I100"/>
+    <mergeCell ref="J98:Q100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:I103"/>
+    <mergeCell ref="J101:Q103"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:I94"/>
+    <mergeCell ref="J92:Q94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:I97"/>
+    <mergeCell ref="J95:Q97"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:I112"/>
+    <mergeCell ref="J110:Q112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:I115"/>
+    <mergeCell ref="J113:Q115"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:I106"/>
+    <mergeCell ref="J104:Q106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:I109"/>
+    <mergeCell ref="J107:Q109"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="C122:I124"/>
+    <mergeCell ref="J122:Q124"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:I118"/>
+    <mergeCell ref="J116:Q118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:I121"/>
+    <mergeCell ref="J119:Q121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
